--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3EDFA-C6C7-4F6F-BD03-C2990F7875B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749468CB-267F-47BC-8F1F-F9A005BEC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4523" yWindow="2753" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="4860" yWindow="3090" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="F02" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Model Name</t>
   </si>
@@ -131,7 +131,13 @@
     <t>F03_E12.h5</t>
   </si>
   <si>
-    <t>Encoder 2</t>
+    <t>F03_E123</t>
+  </si>
+  <si>
+    <t>Encoder 12</t>
+  </si>
+  <si>
+    <t>Encoder 123</t>
   </si>
 </sst>
 </file>
@@ -272,39 +278,41 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,6 +420,100 @@
         <a:xfrm>
           <a:off x="5457826" y="809545"/>
           <a:ext cx="2405095" cy="1385987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175093</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546288</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBA2A08-3E45-3640-26D5-EED370D0EDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130644" y="2416270"/>
+          <a:ext cx="2010056" cy="1507542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105056</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567298</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3EB9F8-3CCA-B2A2-858F-48A88A61193B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343806" y="2416268"/>
+          <a:ext cx="2549338" cy="1539325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -742,243 +844,359 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <f>100-55</f>
+        <v>45</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -987,11 +1205,6 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749468CB-267F-47BC-8F1F-F9A005BEC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AEF7C-4E9E-4CA6-87DF-E0B5D6C9C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3090" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="4523" yWindow="2753" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="F02" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Model Name</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Encoder 123</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f6d650156a0&gt;</t>
+  </si>
+  <si>
+    <t>Training Accuracy</t>
   </si>
 </sst>
 </file>
@@ -276,12 +283,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,17 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -330,6 +334,1191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.4375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.6875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39.344262295081968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF33-43E2-A6EA-0CD823C2F378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91724607"/>
+        <c:axId val="91722527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91724607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91722527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91722527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91724607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,6 +1709,141 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>147078</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623327</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C39BA15-1381-13B1-4E8E-1CC86713B411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3102629" y="4021862"/>
+          <a:ext cx="2115110" cy="1586333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126067</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>453759</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD38B6D-23F9-21C7-CC35-BAE05F45DA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364817" y="4111158"/>
+          <a:ext cx="2414788" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635793</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26193</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FD51CA-8A83-482C-960D-2459BFF3A4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -822,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -844,10 +2168,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -859,344 +2183,365 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="5">
+        <f>100-53</f>
+        <v>47</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+  <mergeCells count="19">
+    <mergeCell ref="A32:A40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -1205,9 +2550,1912 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
+  <dimension ref="L1:O118"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.953125</v>
+      </c>
+      <c r="N2">
+        <f>1+L2</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>100*(1-M2)</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="3" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.875</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">1+L3</f>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.859375</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="5" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.84375</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="6" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.828125</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>17.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0.765625</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>23.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>0.75</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>0.703125</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0.640625</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>35.9375</v>
+      </c>
+    </row>
+    <row r="11" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0.6875</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="12" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>0.671875</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>32.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>0.703125</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0.671875</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>32.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>0.59375</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="16" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>0.609375</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>0.640625</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>35.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>0.609375</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="19" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>0.625</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="20" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>0.5625</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="21" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>0.546875</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="22" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>0.546875</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>0.515625</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="24" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>0.5625</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="25" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>0.5625</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="26" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0.578125</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>0.578125</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>0.59375</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="29" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>0.59375</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="30" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>0.59375</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="31" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>0.59375</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="32" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>0.59375</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>0.59375</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>0.59375</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>0.59375</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>0.59375</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>0.59375</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>0.59375</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>0.578125</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>0.578125</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>0.578125</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>0.578125</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>0.578125</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>0.578125</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>0.5625</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>0.5625</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>0.5625</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48">
+        <v>0.5625</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49">
+        <v>0.5625</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>0.5625</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51">
+        <v>0.5625</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>0.5625</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>0.5625</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="54" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>0.5625</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="55" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>0.5625</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="56" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>0.5625</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="57" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>0.5625</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="58" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>0.5625</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="59" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>0.5625</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="60" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>0.5625</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="61" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61">
+        <v>0.5625</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="62" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>0.5625</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="63" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63">
+        <v>0.5625</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="64" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>0.5625</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65">
+        <v>0.5625</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>0.5625</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67">
+        <v>0.5625</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N118" si="2">1+L67</f>
+        <v>66</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68">
+        <v>0.5625</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>0.5625</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>0.5625</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>0.5625</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>0.546875</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <v>0.546875</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74">
+        <v>0.546875</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <v>0.546875</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="76" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>0.546875</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="77" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77">
+        <v>0.546875</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="78" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>0.546875</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="79" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79">
+        <v>0.546875</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="80" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <v>0.546875</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81">
+        <v>0.546875</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>0.546875</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L83">
+        <v>81</v>
+      </c>
+      <c r="M83">
+        <v>0.546875</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="84" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L84">
+        <v>82</v>
+      </c>
+      <c r="M84">
+        <v>0.546875</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="85" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L85">
+        <v>83</v>
+      </c>
+      <c r="M85">
+        <v>0.546875</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="86" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>0.5625</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="87" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L87">
+        <v>85</v>
+      </c>
+      <c r="M87">
+        <v>0.5625</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="88" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L88">
+        <v>86</v>
+      </c>
+      <c r="M88">
+        <v>0.5625</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="89" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L89">
+        <v>87</v>
+      </c>
+      <c r="M89">
+        <v>0.5625</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="90" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L90">
+        <v>88</v>
+      </c>
+      <c r="M90">
+        <v>0.5625</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="91" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L91">
+        <v>89</v>
+      </c>
+      <c r="M91">
+        <v>0.5625</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="92" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L92">
+        <v>90</v>
+      </c>
+      <c r="M92">
+        <v>0.5625</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="93" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L93">
+        <v>91</v>
+      </c>
+      <c r="M93">
+        <v>0.5625</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="94" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L94">
+        <v>92</v>
+      </c>
+      <c r="M94">
+        <v>0.5625</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="95" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L95">
+        <v>93</v>
+      </c>
+      <c r="M95">
+        <v>0.5625</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="96" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L96">
+        <v>94</v>
+      </c>
+      <c r="M96">
+        <v>0.5625</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L97">
+        <v>95</v>
+      </c>
+      <c r="M97">
+        <v>0.5625</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L98">
+        <v>96</v>
+      </c>
+      <c r="M98">
+        <v>0.5625</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L99">
+        <v>97</v>
+      </c>
+      <c r="M99">
+        <v>0.5625</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L100">
+        <v>98</v>
+      </c>
+      <c r="M100">
+        <v>0.5625</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L101">
+        <v>99</v>
+      </c>
+      <c r="M101">
+        <v>0.5625</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="102" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102">
+        <v>0.5625</v>
+      </c>
+      <c r="N102" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="103" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L103" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103">
+        <v>0.65625</v>
+      </c>
+      <c r="N103" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="3"/>
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="104" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L104" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104">
+        <v>0.53125</v>
+      </c>
+      <c r="N104" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="105" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L105" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105">
+        <v>0.578125</v>
+      </c>
+      <c r="N105" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="106" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L106" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106">
+        <v>0.5625</v>
+      </c>
+      <c r="N106" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="107" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L107" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107">
+        <v>0.484375</v>
+      </c>
+      <c r="N107" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="3"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="108" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L108" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108">
+        <v>0.5</v>
+      </c>
+      <c r="N108" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L109" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109">
+        <v>0.609375</v>
+      </c>
+      <c r="N109" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="110" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L110" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110">
+        <v>0.4375</v>
+      </c>
+      <c r="N110" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="111" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L111" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111">
+        <v>0.515625</v>
+      </c>
+      <c r="N111" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="3"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="112" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M112">
+        <v>0.609375</v>
+      </c>
+      <c r="N112" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="113" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113">
+        <v>0.515625</v>
+      </c>
+      <c r="N113" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="3"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="114" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L114" t="s">
+        <v>14</v>
+      </c>
+      <c r="M114">
+        <v>0.46875</v>
+      </c>
+      <c r="N114" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="3"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="115" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L115" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115">
+        <v>0.515625</v>
+      </c>
+      <c r="N115" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="3"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="116" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L116" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116">
+        <v>0.4375</v>
+      </c>
+      <c r="N116" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="117" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117">
+        <v>0.4375</v>
+      </c>
+      <c r="N117" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L118" t="s">
+        <v>14</v>
+      </c>
+      <c r="M118">
+        <v>0.60655737704918034</v>
+      </c>
+      <c r="N118" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="3"/>
+        <v>39.344262295081968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AEF7C-4E9E-4CA6-87DF-E0B5D6C9C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FED40-8885-480E-88CF-0325F666A2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4523" yWindow="2753" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Model Name</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Training Accuracy</t>
+  </si>
+  <si>
+    <t>F03_E1234</t>
+  </si>
+  <si>
+    <t>Encode 1234</t>
+  </si>
+  <si>
+    <t>F03_E12345</t>
+  </si>
+  <si>
+    <t>Encode 12345</t>
   </si>
 </sst>
 </file>
@@ -283,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +331,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2513,35 +2531,223 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="6"/>
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="28">
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
     <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FED40-8885-480E-88CF-0325F666A2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980DFE3-93A6-48BF-A388-E557A705FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4523" yWindow="2753" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Encoder 123</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f6d650156a0&gt;</t>
-  </si>
-  <si>
     <t>Training Accuracy</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Encode 12345</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f7d205516a0&gt;</t>
   </si>
 </sst>
 </file>
@@ -440,40 +440,40 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.625</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>23.4375</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>17.1875</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.4375</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.6875</c:v>
+                  <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.9375</c:v>
+                  <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.25</c:v>
+                  <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>32.8125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.6875</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.8125</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>40.625</c:v>
@@ -482,310 +482,310 @@
                   <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.9375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.5</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>45.3125</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>45.3125</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43.75</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.1875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.1875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.625</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.625</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.625</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.625</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.625</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.625</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.1875</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.1875</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.1875</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.1875</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.1875</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.1875</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45.3125</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>45.3125</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45.3125</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45.3125</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>46.875</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42.1875</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>51.5625</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="113">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="107">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>56.25</c:v>
-                </c:pt>
                 <c:pt idx="116">
-                  <c:v>39.344262295081968</c:v>
+                  <c:v>32.786885245901644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,6 +1823,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126066</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>553290</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96582C1-9557-5E1B-B4C6-96F98EDF2CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364816" y="5729008"/>
+          <a:ext cx="2514320" cy="1494526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>126066</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>532280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E9647B-2922-D0B6-6B9A-DC1B7C943424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3081617" y="5707996"/>
+          <a:ext cx="2045075" cy="1533806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2167,7 +2261,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:I40"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2532,12 +2626,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <f>100-57</f>
+        <v>43</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2635,10 +2732,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2778,14 +2875,14 @@
   <dimension ref="L1:O118"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="12:15" x14ac:dyDescent="0.45">
       <c r="O1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="12:15" x14ac:dyDescent="0.45">
@@ -2809,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -2817,7 +2914,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>12.5</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -2825,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.859375</v>
+        <v>0.890625</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -2833,7 +2930,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>14.0625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -2841,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -2849,7 +2946,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -2857,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.828125</v>
+        <v>0.765625</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -2865,7 +2962,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>17.1875</v>
+        <v>23.4375</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -2873,7 +2970,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.765625</v>
+        <v>0.828125</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -2881,7 +2978,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>23.4375</v>
+        <v>17.1875</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -2889,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -2897,7 +2994,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -2905,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.703125</v>
+        <v>0.796875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -2913,7 +3010,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>29.6875</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -2921,7 +3018,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.640625</v>
+        <v>0.71875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -2929,7 +3026,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -2937,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.6875</v>
+        <v>0.609375</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -2945,7 +3042,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>31.25</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -2969,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.703125</v>
+        <v>0.6875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -2977,7 +3074,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>29.6875</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -2985,7 +3082,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.671875</v>
+        <v>0.65625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -2993,7 +3090,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -3033,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.640625</v>
+        <v>0.625</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -3041,7 +3138,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -3065,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.625</v>
+        <v>0.453125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -3073,7 +3170,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -3081,7 +3178,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -3089,7 +3186,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -3097,7 +3194,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.546875</v>
+        <v>0.484375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -3105,7 +3202,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -3113,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -3121,7 +3218,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -3129,7 +3226,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -3137,7 +3234,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -3145,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -3153,7 +3250,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -3161,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.5625</v>
+        <v>0.546875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -3169,7 +3266,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -3177,7 +3274,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.578125</v>
+        <v>0.546875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -3185,7 +3282,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -3193,7 +3290,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.578125</v>
+        <v>0.546875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -3201,7 +3298,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -3209,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.59375</v>
+        <v>0.546875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -3217,7 +3314,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -3225,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.59375</v>
+        <v>0.53125</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -3233,7 +3330,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -3241,7 +3338,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.59375</v>
+        <v>0.53125</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -3249,7 +3346,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -3257,7 +3354,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.59375</v>
+        <v>0.53125</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -3265,7 +3362,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -3273,7 +3370,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -3281,7 +3378,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -3289,7 +3386,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -3297,7 +3394,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -3305,7 +3402,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -3313,7 +3410,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -3321,7 +3418,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -3329,7 +3426,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -3337,7 +3434,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.59375</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -3345,7 +3442,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -3353,7 +3450,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -3361,7 +3458,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -3369,7 +3466,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -3377,7 +3474,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -3385,7 +3482,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.578125</v>
+        <v>0.5</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -3393,7 +3490,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -3401,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.578125</v>
+        <v>0.5</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -3409,7 +3506,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -3417,7 +3514,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -3425,7 +3522,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -3433,7 +3530,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.578125</v>
+        <v>0.5</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -3441,7 +3538,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -3449,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.578125</v>
+        <v>0.5</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -3457,7 +3554,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -3465,7 +3562,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.578125</v>
+        <v>0.515625</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -3473,7 +3570,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -3481,7 +3578,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -3489,7 +3586,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -3497,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -3505,7 +3602,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -3513,7 +3610,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -3521,7 +3618,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -3529,7 +3626,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -3537,7 +3634,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -3545,7 +3642,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -3553,7 +3650,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -3561,7 +3658,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -3569,7 +3666,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -3577,7 +3674,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -3585,7 +3682,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -3593,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -3601,7 +3698,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -3609,7 +3706,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -3617,7 +3714,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -3625,7 +3722,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -3633,7 +3730,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -3641,7 +3738,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -3649,7 +3746,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -3657,7 +3754,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -3665,7 +3762,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -3673,7 +3770,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -3681,7 +3778,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -3689,7 +3786,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -3697,7 +3794,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -3705,7 +3802,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -3713,7 +3810,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -3721,7 +3818,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -3729,7 +3826,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -3737,7 +3834,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -3745,7 +3842,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -3753,7 +3850,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -3761,7 +3858,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -3769,7 +3866,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -3777,7 +3874,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -3785,7 +3882,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -3793,7 +3890,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -3801,7 +3898,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -3809,7 +3906,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -3817,7 +3914,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -3825,7 +3922,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -3833,7 +3930,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -3841,7 +3938,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -3849,7 +3946,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -3857,7 +3954,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -3865,7 +3962,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -3873,7 +3970,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -3881,7 +3978,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -3889,7 +3986,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -3897,7 +3994,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -3905,7 +4002,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -3913,7 +4010,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -3921,7 +4018,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -3929,7 +4026,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -3937,7 +4034,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -3945,7 +4042,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -3953,7 +4050,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -3961,7 +4058,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -3969,7 +4066,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -3977,7 +4074,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -3985,7 +4082,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -3993,7 +4090,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -4001,7 +4098,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -4009,7 +4106,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -4017,7 +4114,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -4025,7 +4122,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -4033,7 +4130,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -4041,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -4049,7 +4146,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -4057,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -4065,7 +4162,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -4073,7 +4170,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -4081,7 +4178,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -4089,7 +4186,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -4097,7 +4194,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -4105,7 +4202,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -4113,7 +4210,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -4121,7 +4218,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -4129,7 +4226,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -4137,7 +4234,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -4145,7 +4242,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -4153,7 +4250,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -4161,7 +4258,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -4169,7 +4266,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -4177,7 +4274,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -4185,7 +4282,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -4193,7 +4290,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -4201,7 +4298,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -4209,7 +4306,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -4217,7 +4314,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -4225,7 +4322,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -4233,7 +4330,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -4241,7 +4338,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -4249,7 +4346,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -4257,7 +4354,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -4265,7 +4362,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -4273,7 +4370,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -4281,7 +4378,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -4289,7 +4386,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -4297,7 +4394,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -4305,7 +4402,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -4313,7 +4410,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -4321,7 +4418,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -4329,7 +4426,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -4337,7 +4434,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -4345,7 +4442,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -4353,7 +4450,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -4361,7 +4458,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -4369,7 +4466,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -4377,7 +4474,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -4385,15 +4482,15 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M102">
-        <v>0.5625</v>
+        <v>0.515625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -4401,12 +4498,12 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M103">
         <v>0.65625</v>
@@ -4422,10 +4519,10 @@
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M104">
-        <v>0.53125</v>
+        <v>0.578125</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -4433,15 +4530,15 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M105">
-        <v>0.578125</v>
+        <v>0.625</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -4449,12 +4546,12 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M106">
         <v>0.5625</v>
@@ -4470,10 +4567,10 @@
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M107">
-        <v>0.484375</v>
+        <v>0.546875</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -4481,15 +4578,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -4497,15 +4594,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M109">
-        <v>0.609375</v>
+        <v>0.640625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -4513,15 +4610,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M110">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -4529,15 +4626,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M111">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -4545,15 +4642,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M112">
-        <v>0.609375</v>
+        <v>0.578125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -4561,15 +4658,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -4577,15 +4674,15 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M114">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -4593,15 +4690,15 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M115">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -4609,15 +4706,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M116">
-        <v>0.4375</v>
+        <v>0.59375</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -4625,15 +4722,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M117">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -4641,15 +4738,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M118">
-        <v>0.60655737704918034</v>
+        <v>0.67213114754098358</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -4657,7 +4754,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>39.344262295081968</v>
+        <v>32.786885245901644</v>
       </c>
     </row>
   </sheetData>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980DFE3-93A6-48BF-A388-E557A705FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDBA9C-4AC8-41F1-930D-C6EBDF32A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4523" yWindow="2753" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="4860" yWindow="3090" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="F02" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <t>Encode 12345</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f7d205516a0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f2de04aa3d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,16 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,61 +436,61 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.375</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.5</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.4375</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.1875</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.3125</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.125</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.0625</c:v>
+                  <c:v>29.6875</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>29.6875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>32.8125</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>40.625</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.5</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.0625</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.6875</c:v>
+                  <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>48.4375</c:v>
@@ -503,289 +499,289 @@
                   <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.3125</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>48.4375</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="110">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>48.4375</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="113">
+                  <c:v>32.8125</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>46.875</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="115">
                   <c:v>42.1875</c:v>
                 </c:pt>
-                <c:pt idx="103">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>35.9375</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="116">
-                  <c:v>32.786885245901644</c:v>
+                  <c:v>36.065573770491795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,6 +1913,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84044</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>540706</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A714F72-47A2-4B32-0571-F8880F204237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5322794" y="7339853"/>
+          <a:ext cx="2543758" cy="1491783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546287</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>159334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86A373E-21EC-7C1F-30DC-01CD0E3AB337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3088623" y="7360865"/>
+          <a:ext cx="2052076" cy="1539057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2260,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2280,10 +2370,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2295,16 +2385,16 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -2628,7 +2718,7 @@
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="5">
@@ -2644,84 +2734,84 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2737,7 +2827,10 @@
       <c r="B41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <f>100-59</f>
+        <v>41</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2747,79 +2840,79 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -2835,16 +2928,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -2853,16 +2946,16 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2874,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O118"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2906,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -2914,7 +3007,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -2922,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -2930,7 +3023,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -2938,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -2946,7 +3039,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -2954,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -2962,7 +3055,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>23.4375</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -2970,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -2978,7 +3071,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>17.1875</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -2986,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -2994,7 +3087,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>20.3125</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -3018,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -3026,7 +3119,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -3034,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.609375</v>
+        <v>0.703125</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -3042,7 +3135,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -3050,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.671875</v>
+        <v>0.703125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -3058,7 +3151,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -3066,7 +3159,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.6875</v>
+        <v>0.59375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -3074,7 +3167,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>31.25</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -3082,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.65625</v>
+        <v>0.625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -3090,7 +3183,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>34.375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -3098,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.59375</v>
+        <v>0.671875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -3106,7 +3199,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -3114,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.609375</v>
+        <v>0.625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -3122,7 +3215,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -3130,7 +3223,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -3138,7 +3231,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -3146,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.609375</v>
+        <v>0.546875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -3154,7 +3247,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -3162,7 +3255,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.453125</v>
+        <v>0.59375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -3170,7 +3263,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -3178,7 +3271,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -3186,7 +3279,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -3194,7 +3287,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -3202,7 +3295,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -3242,7 +3335,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -3250,7 +3343,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -3258,7 +3351,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -3266,7 +3359,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -3290,7 +3383,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -3298,7 +3391,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -3322,7 +3415,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -3330,7 +3423,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -3338,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -3346,7 +3439,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -3370,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -3378,7 +3471,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -3386,7 +3479,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -3394,7 +3487,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -3402,7 +3495,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -3410,7 +3503,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -3418,7 +3511,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -3426,7 +3519,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -3434,7 +3527,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -3442,7 +3535,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -3450,7 +3543,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -3458,7 +3551,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -3466,7 +3559,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -3474,7 +3567,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -3482,7 +3575,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -3490,7 +3583,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -3498,7 +3591,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -3506,7 +3599,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -3514,7 +3607,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.484375</v>
+        <v>0.5625</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -3522,7 +3615,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -3530,7 +3623,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -3538,7 +3631,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -3546,7 +3639,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -3554,7 +3647,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -3562,7 +3655,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -3570,7 +3663,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -3578,7 +3671,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -3586,7 +3679,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -3594,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -3602,7 +3695,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -3610,7 +3703,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -3618,7 +3711,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -3626,7 +3719,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -3634,7 +3727,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -3642,7 +3735,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -3650,7 +3743,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -3658,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -3666,7 +3759,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -3674,7 +3767,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -3682,7 +3775,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -3690,7 +3783,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -3698,7 +3791,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -3706,7 +3799,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -3714,7 +3807,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -3722,7 +3815,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -3730,7 +3823,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -3738,7 +3831,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -3746,7 +3839,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -3754,7 +3847,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -3762,7 +3855,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -3770,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -3778,7 +3871,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -3786,7 +3879,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -3794,7 +3887,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -3802,7 +3895,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -3810,7 +3903,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -3818,7 +3911,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -3826,7 +3919,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -3834,7 +3927,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -3842,7 +3935,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -3850,7 +3943,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -3858,7 +3951,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -3866,7 +3959,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -3874,7 +3967,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -3882,7 +3975,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -3890,7 +3983,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -3898,7 +3991,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -3906,7 +3999,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -3914,7 +4007,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -3922,7 +4015,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -3930,7 +4023,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -3938,7 +4031,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -3946,7 +4039,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -3954,7 +4047,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -3962,7 +4055,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -3970,7 +4063,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -3978,7 +4071,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -3986,7 +4079,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -3994,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -4002,7 +4095,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -4010,7 +4103,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -4018,7 +4111,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -4026,7 +4119,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -4034,7 +4127,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -4042,7 +4135,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -4050,7 +4143,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -4058,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -4066,7 +4159,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -4074,7 +4167,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -4082,7 +4175,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -4090,7 +4183,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -4098,7 +4191,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -4106,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -4114,7 +4207,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -4122,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -4130,7 +4223,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -4138,7 +4231,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -4146,7 +4239,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -4154,7 +4247,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -4162,7 +4255,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -4170,7 +4263,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -4178,7 +4271,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -4186,7 +4279,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -4194,7 +4287,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -4202,7 +4295,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -4210,7 +4303,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -4218,7 +4311,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -4226,7 +4319,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -4234,7 +4327,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -4242,7 +4335,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -4250,7 +4343,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -4258,7 +4351,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -4266,7 +4359,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -4274,7 +4367,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -4282,7 +4375,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -4290,7 +4383,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -4298,7 +4391,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -4306,7 +4399,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -4314,7 +4407,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -4322,7 +4415,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -4330,7 +4423,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -4338,7 +4431,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -4346,7 +4439,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -4354,7 +4447,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -4362,7 +4455,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -4370,7 +4463,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -4378,7 +4471,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -4386,7 +4479,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -4394,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -4402,7 +4495,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -4410,7 +4503,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.515625</v>
+        <v>0.578125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -4418,7 +4511,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -4426,7 +4519,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -4434,7 +4527,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -4442,7 +4535,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -4450,7 +4543,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -4458,7 +4551,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -4466,7 +4559,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -4474,7 +4567,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -4482,7 +4575,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -4490,7 +4583,7 @@
         <v>19</v>
       </c>
       <c r="M102">
-        <v>0.515625</v>
+        <v>0.5625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -4498,7 +4591,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -4506,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="M103">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -4514,7 +4607,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>34.375</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -4522,7 +4615,7 @@
         <v>19</v>
       </c>
       <c r="M104">
-        <v>0.578125</v>
+        <v>0.609375</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -4530,7 +4623,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -4538,7 +4631,7 @@
         <v>19</v>
       </c>
       <c r="M105">
-        <v>0.625</v>
+        <v>0.609375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -4546,7 +4639,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -4554,7 +4647,7 @@
         <v>19</v>
       </c>
       <c r="M106">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -4562,7 +4655,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -4570,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="M107">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -4578,7 +4671,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -4586,7 +4679,7 @@
         <v>19</v>
       </c>
       <c r="M108">
-        <v>0.5625</v>
+        <v>0.609375</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -4594,7 +4687,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -4602,7 +4695,7 @@
         <v>19</v>
       </c>
       <c r="M109">
-        <v>0.640625</v>
+        <v>0.625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -4610,7 +4703,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>35.9375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -4618,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="M110">
-        <v>0.53125</v>
+        <v>0.609375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -4626,7 +4719,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -4634,7 +4727,7 @@
         <v>19</v>
       </c>
       <c r="M111">
-        <v>0.578125</v>
+        <v>0.515625</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -4642,7 +4735,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -4650,7 +4743,7 @@
         <v>19</v>
       </c>
       <c r="M112">
-        <v>0.578125</v>
+        <v>0.609375</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -4658,7 +4751,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -4666,7 +4759,7 @@
         <v>19</v>
       </c>
       <c r="M113">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -4674,7 +4767,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -4682,7 +4775,7 @@
         <v>19</v>
       </c>
       <c r="M114">
-        <v>0.484375</v>
+        <v>0.515625</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -4690,7 +4783,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -4698,7 +4791,7 @@
         <v>19</v>
       </c>
       <c r="M115">
-        <v>0.5625</v>
+        <v>0.671875</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -4706,7 +4799,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -4714,7 +4807,7 @@
         <v>19</v>
       </c>
       <c r="M116">
-        <v>0.59375</v>
+        <v>0.53125</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -4722,7 +4815,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -4730,7 +4823,7 @@
         <v>19</v>
       </c>
       <c r="M117">
-        <v>0.5</v>
+        <v>0.578125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -4738,7 +4831,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -4746,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="M118">
-        <v>0.67213114754098358</v>
+        <v>0.63934426229508201</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -4754,7 +4847,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>32.786885245901644</v>
+        <v>36.065573770491795</v>
       </c>
     </row>
   </sheetData>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDBA9C-4AC8-41F1-930D-C6EBDF32A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A01FDB3-38B7-4F28-952D-3ABC4FB44EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3090" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="3578" yWindow="2565" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="F02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Model Name</t>
   </si>
@@ -156,7 +156,13 @@
     <t>Encode 12345</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f2de04aa3d0&gt;</t>
+    <t xml:space="preserve">Token Embeddings </t>
+  </si>
+  <si>
+    <t>F03_t3</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7eff3012ee50&gt;</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +338,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,352 +451,352 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6875</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.625</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.75</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.875</c:v>
+                  <c:v>26.5625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.3125</c:v>
+                  <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.875</c:v>
+                  <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.6875</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.6875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>40.625</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.8125</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.5</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>40.625</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>39.0625</c:v>
-                </c:pt>
                 <c:pt idx="103">
-                  <c:v>39.0625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>40.625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>39.0625</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>37.5</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>39.0625</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>48.4375</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>39.0625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>45.3125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>32.8125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>46.875</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>42.1875</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>36.065573770491795</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1561,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
@@ -1640,7 +1655,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>546288</xdr:colOff>
+      <xdr:colOff>546289</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>99805</xdr:rowOff>
     </xdr:to>
@@ -1734,7 +1749,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>623327</xdr:colOff>
+      <xdr:colOff>623328</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>145327</xdr:rowOff>
     </xdr:to>
@@ -1872,7 +1887,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>532280</xdr:colOff>
+      <xdr:colOff>532281</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:to>
@@ -1966,7 +1981,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>546287</xdr:colOff>
+      <xdr:colOff>546288</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>159334</xdr:rowOff>
     </xdr:to>
@@ -1999,6 +2014,100 @@
         <a:xfrm>
           <a:off x="3088623" y="7360865"/>
           <a:ext cx="2052076" cy="1539057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518271</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>74133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4393E85A-7D53-4711-4CC3-EE221120F4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511894" y="8971710"/>
+          <a:ext cx="2493308" cy="1481872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149411</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536948</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A43372-03E2-EDF8-C8F5-6FF00033F860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3266048" y="9020736"/>
+          <a:ext cx="2026397" cy="1519798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2348,16 +2457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.9296875" customWidth="1"/>
     <col min="7" max="7" width="20.19921875" customWidth="1"/>
@@ -2926,8 +3035,119 @@
       <c r="H49" s="7"/>
       <c r="I49" s="10"/>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="5">
+        <f>100-48</f>
+        <v>52</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="4"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
@@ -2965,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
-  <dimension ref="L1:O118"/>
+  <dimension ref="L1:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2996,1610 +3216,1610 @@
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.84375</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>0.953125</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.859375</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0.84375</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0.78125</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>0.8125</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M7">
-        <v>0.8125</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0.734375</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M8">
-        <v>0.78125</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>0.71875</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>0.796875</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>20.3125</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>0.71875</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M10">
-        <v>0.78125</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0.625</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M11">
-        <v>0.703125</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>29.6875</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>0.546875</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M12">
-        <v>0.703125</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>29.6875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0.625</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M13">
-        <v>0.59375</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>0.53125</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M14">
-        <v>0.625</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>0.59375</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M15">
-        <v>0.671875</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>0.5625</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M16">
-        <v>0.625</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>0.546875</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M17">
-        <v>0.59375</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>0.5625</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M18">
-        <v>0.546875</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M19">
-        <v>0.59375</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="M20">
-        <v>0.515625</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>0.421875</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M21">
-        <v>0.5</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>0.453125</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M22">
-        <v>0.515625</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>0.46875</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M23">
-        <v>0.546875</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>0.421875</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M24">
-        <v>0.546875</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>0.421875</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M25">
-        <v>0.53125</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>0.4375</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M26">
-        <v>0.546875</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>0.4375</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M27">
-        <v>0.53125</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>0.4375</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M28">
-        <v>0.546875</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>0.453125</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M29">
-        <v>0.546875</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>0.453125</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M30">
-        <v>0.546875</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>0.453125</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M31">
-        <v>0.53125</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>0.453125</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M32">
-        <v>0.53125</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>0.453125</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="M33">
-        <v>0.5625</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>0.46875</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M34">
-        <v>0.5625</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>0.46875</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M35">
-        <v>0.578125</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>0.46875</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="M36">
-        <v>0.5625</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L37">
+        <v>34</v>
+      </c>
+      <c r="M37">
+        <v>0.46875</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="M37">
-        <v>0.5625</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>0.46875</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="M38">
-        <v>0.5625</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L39">
+        <v>36</v>
+      </c>
+      <c r="M39">
+        <v>0.46875</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="M39">
-        <v>0.5625</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>0.46875</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="M40">
-        <v>0.5625</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L41">
+        <v>38</v>
+      </c>
+      <c r="M41">
+        <v>0.46875</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="M41">
-        <v>0.5625</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="M42">
+        <v>0.46875</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M42">
-        <v>0.5625</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>0.46875</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="M43">
-        <v>0.5625</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L44">
+        <v>41</v>
+      </c>
+      <c r="M44">
+        <v>0.46875</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M44">
-        <v>0.5625</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L45">
+        <v>42</v>
+      </c>
+      <c r="M45">
+        <v>0.46875</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="M45">
-        <v>0.5625</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="M46">
+        <v>0.46875</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M46">
-        <v>0.5625</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L47">
+        <v>44</v>
+      </c>
+      <c r="M47">
+        <v>0.46875</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M47">
-        <v>0.5625</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L48">
+        <v>45</v>
+      </c>
+      <c r="M48">
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M48">
-        <v>0.546875</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L49">
+        <v>46</v>
+      </c>
+      <c r="M49">
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M49">
-        <v>0.5625</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L50">
+        <v>47</v>
+      </c>
+      <c r="M50">
+        <v>0.5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M50">
-        <v>0.5625</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="M51">
+        <v>0.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M51">
-        <v>0.5625</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="0"/>
+      <c r="O51">
+        <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
-        <v>43.75</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L52">
+        <v>49</v>
+      </c>
+      <c r="M52">
+        <v>0.484375</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52">
-        <v>0.5625</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>0.484375</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M53">
-        <v>0.5625</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L54">
+        <v>51</v>
+      </c>
+      <c r="M54">
+        <v>0.484375</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="M54">
-        <v>0.5625</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L55">
+        <v>52</v>
+      </c>
+      <c r="M55">
+        <v>0.484375</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="M55">
-        <v>0.5625</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L56">
+        <v>53</v>
+      </c>
+      <c r="M56">
+        <v>0.484375</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="M56">
-        <v>0.5625</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L57">
+        <v>54</v>
+      </c>
+      <c r="M57">
+        <v>0.484375</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M57">
-        <v>0.5625</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L58">
+        <v>55</v>
+      </c>
+      <c r="M58">
+        <v>0.484375</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M58">
-        <v>0.5625</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L59">
+        <v>56</v>
+      </c>
+      <c r="M59">
+        <v>0.484375</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M59">
-        <v>0.5625</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L60">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <v>0.484375</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="M60">
-        <v>0.5625</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L61">
+        <v>58</v>
+      </c>
+      <c r="M61">
+        <v>0.484375</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="M61">
-        <v>0.546875</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L62">
+        <v>59</v>
+      </c>
+      <c r="M62">
+        <v>0.484375</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M62">
-        <v>0.5625</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L63">
+        <v>60</v>
+      </c>
+      <c r="M63">
+        <v>0.484375</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="M63">
-        <v>0.59375</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L64">
+        <v>61</v>
+      </c>
+      <c r="M64">
+        <v>0.484375</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="M64">
-        <v>0.578125</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L65">
+        <v>62</v>
+      </c>
+      <c r="M65">
+        <v>0.484375</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="M65">
-        <v>0.59375</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L66">
+        <v>63</v>
+      </c>
+      <c r="M66">
+        <v>0.484375</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="M66">
-        <v>0.59375</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M67">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M68">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M69">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M70">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M71">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M72">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M73">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M74">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M75">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M76">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M77">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M78">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M79">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M80">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M81">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M82">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M83">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M84">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M85">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M86">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M87">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M88">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M89">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M90">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M91">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M92">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M93">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M94">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M95">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M96">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M97">
-        <v>0.578125</v>
+        <v>0.46875</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M98">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M99">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M100">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M101">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
-      <c r="L102" t="s">
-        <v>19</v>
+      <c r="L102">
+        <v>99</v>
       </c>
       <c r="M102">
-        <v>0.5625</v>
-      </c>
-      <c r="N102" t="e">
+        <v>0.46875</v>
+      </c>
+      <c r="N102">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M103">
-        <v>0.6875</v>
+        <v>0.46875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -4607,15 +4827,15 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M104">
-        <v>0.609375</v>
+        <v>0.59375</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -4623,15 +4843,15 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M105">
-        <v>0.609375</v>
+        <v>0.46875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -4639,15 +4859,15 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -4655,12 +4875,12 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M107">
         <v>0.453125</v>
@@ -4676,10 +4896,10 @@
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M108">
-        <v>0.609375</v>
+        <v>0.359375</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -4687,15 +4907,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M109">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -4703,15 +4923,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M110">
-        <v>0.609375</v>
+        <v>0.546875</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -4719,15 +4939,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M111">
-        <v>0.515625</v>
+        <v>0.453125</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -4735,15 +4955,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M112">
-        <v>0.609375</v>
+        <v>0.46875</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -4751,15 +4971,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M113">
-        <v>0.546875</v>
+        <v>0.421875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -4767,12 +4987,12 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M114">
         <v>0.515625</v>
@@ -4788,10 +5008,10 @@
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M115">
-        <v>0.671875</v>
+        <v>0.4375</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -4799,15 +5019,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>32.8125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M116">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -4815,15 +5035,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M117">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -4831,15 +5051,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M118">
-        <v>0.63934426229508201</v>
+        <v>0.484375</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -4847,7 +5067,15 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>36.065573770491795</v>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.45">
+      <c r="L119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M119">
+        <v>0.55737704918032782</v>
       </c>
     </row>
   </sheetData>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A01FDB3-38B7-4F28-952D-3ABC4FB44EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D39B94-6A93-4D03-9918-5565EE066D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3578" yWindow="2565" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="F02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Model Name</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>&lt;__main__.DisplayOutputs object at 0x7eff3012ee50&gt;</t>
+  </si>
+  <si>
+    <t>F03_T3+D123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token Embeddings
++
+Decoder 123 </t>
+  </si>
+  <si>
+    <t>F03_T3+D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token Embeddings
++
+Decoder 12 </t>
+  </si>
+  <si>
+    <t>Token Embeddings
++
+Decoder 1</t>
+  </si>
+  <si>
+    <t>F03_T3+D1</t>
+  </si>
+  <si>
+    <t>F03_Dense</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7feb8c3febb0&gt;</t>
   </si>
 </sst>
 </file>
@@ -301,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +347,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,20 +375,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,73 +493,73 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.625</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>17.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.875</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>26.5625</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.125</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.125</c:v>
+                  <c:v>32.8125</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.75</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57.8125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57.8125</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.25</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>56.25</c:v>
@@ -532,133 +571,133 @@
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>54.6875</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="60">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="61">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="62">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="63">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="64">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="65">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="66">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="67">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="68">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="69">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="70">
                   <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>53.125</c:v>
@@ -700,82 +739,82 @@
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>53.125</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>53.125</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>54.6875</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>64.0625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>56.25</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>45.3125</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>54.6875</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>53.125</c:v>
@@ -2116,6 +2155,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>105055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>337991</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>7003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E43CF9-3663-BDAA-8416-5F9322D025D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5518898" y="10666599"/>
+          <a:ext cx="2306024" cy="1358713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>147078</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>84046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553290</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D06826-5397-2E69-15CF-F142B941274A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263715" y="10645590"/>
+          <a:ext cx="2045072" cy="1533804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2457,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2479,10 +2612,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2494,670 +2627,1100 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="9"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="9"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="9"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="10"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="9"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="9"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="8">
+        <f>100-55</f>
+        <v>45</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="4"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="4"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="4"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="4"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+  <mergeCells count="53">
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:F94"/>
+    <mergeCell ref="G86:I94"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -3166,16 +3729,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3188,7 +3756,7 @@
   <dimension ref="L1:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3235,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -3243,7 +3811,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -3267,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>0.78125</v>
+        <v>0.828125</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -3275,7 +3843,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>17.1875</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -3283,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -3291,7 +3859,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -3299,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>0.734375</v>
+        <v>0.8125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -3307,7 +3875,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>26.5625</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -3315,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>0.71875</v>
+        <v>0.734375</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -3323,7 +3891,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -3331,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.71875</v>
+        <v>0.671875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -3339,7 +3907,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -3347,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="M11">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -3355,7 +3923,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -3363,7 +3931,7 @@
         <v>9</v>
       </c>
       <c r="M12">
-        <v>0.546875</v>
+        <v>0.640625</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -3371,7 +3939,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -3379,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="M13">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -3387,7 +3955,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -3395,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="M14">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -3403,7 +3971,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -3411,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="M15">
-        <v>0.59375</v>
+        <v>0.5625</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -3419,7 +3987,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -3427,7 +3995,7 @@
         <v>13</v>
       </c>
       <c r="M16">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -3435,7 +4003,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -3459,7 +4027,7 @@
         <v>15</v>
       </c>
       <c r="M18">
-        <v>0.5625</v>
+        <v>0.578125</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -3467,7 +4035,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -3475,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -3483,7 +4051,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -3491,7 +4059,7 @@
         <v>17</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -3499,7 +4067,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -3507,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="M21">
-        <v>0.421875</v>
+        <v>0.625</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -3515,7 +4083,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -3523,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="M22">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -3531,7 +4099,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -3555,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="M24">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -3563,7 +4131,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -3571,7 +4139,7 @@
         <v>22</v>
       </c>
       <c r="M25">
-        <v>0.421875</v>
+        <v>0.46875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -3579,7 +4147,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -3587,7 +4155,7 @@
         <v>23</v>
       </c>
       <c r="M26">
-        <v>0.4375</v>
+        <v>0.515625</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -3595,7 +4163,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -3651,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="M30">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -3659,7 +4227,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -3667,7 +4235,7 @@
         <v>28</v>
       </c>
       <c r="M31">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -3675,7 +4243,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -3699,7 +4267,7 @@
         <v>30</v>
       </c>
       <c r="M33">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -3707,7 +4275,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -3715,7 +4283,7 @@
         <v>31</v>
       </c>
       <c r="M34">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -3723,7 +4291,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -3731,7 +4299,7 @@
         <v>32</v>
       </c>
       <c r="M35">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -3739,7 +4307,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -3747,7 +4315,7 @@
         <v>33</v>
       </c>
       <c r="M36">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -3755,7 +4323,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -3763,7 +4331,7 @@
         <v>34</v>
       </c>
       <c r="M37">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -3771,7 +4339,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -3779,7 +4347,7 @@
         <v>35</v>
       </c>
       <c r="M38">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -3787,7 +4355,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -3795,7 +4363,7 @@
         <v>36</v>
       </c>
       <c r="M39">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -3803,7 +4371,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -3811,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="M40">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -3819,7 +4387,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -3827,7 +4395,7 @@
         <v>38</v>
       </c>
       <c r="M41">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -3835,7 +4403,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -3843,7 +4411,7 @@
         <v>39</v>
       </c>
       <c r="M42">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -3851,7 +4419,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -3859,7 +4427,7 @@
         <v>40</v>
       </c>
       <c r="M43">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -3867,7 +4435,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -3875,7 +4443,7 @@
         <v>41</v>
       </c>
       <c r="M44">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -3883,7 +4451,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -3891,7 +4459,7 @@
         <v>42</v>
       </c>
       <c r="M45">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -3899,7 +4467,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -3907,7 +4475,7 @@
         <v>43</v>
       </c>
       <c r="M46">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -3915,7 +4483,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -3923,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="M47">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -3931,7 +4499,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -3939,7 +4507,7 @@
         <v>45</v>
       </c>
       <c r="M48">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -3947,7 +4515,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -3955,7 +4523,7 @@
         <v>46</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -3963,7 +4531,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -3971,7 +4539,7 @@
         <v>47</v>
       </c>
       <c r="M50">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -3979,7 +4547,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -3987,7 +4555,7 @@
         <v>48</v>
       </c>
       <c r="M51">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -3995,7 +4563,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -4003,7 +4571,7 @@
         <v>49</v>
       </c>
       <c r="M52">
-        <v>0.484375</v>
+        <v>0.40625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -4011,7 +4579,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -4019,7 +4587,7 @@
         <v>50</v>
       </c>
       <c r="M53">
-        <v>0.484375</v>
+        <v>0.40625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -4027,7 +4595,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -4035,7 +4603,7 @@
         <v>51</v>
       </c>
       <c r="M54">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -4043,7 +4611,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -4051,7 +4619,7 @@
         <v>52</v>
       </c>
       <c r="M55">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -4059,7 +4627,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -4067,7 +4635,7 @@
         <v>53</v>
       </c>
       <c r="M56">
-        <v>0.484375</v>
+        <v>0.4375</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -4075,7 +4643,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -4083,7 +4651,7 @@
         <v>54</v>
       </c>
       <c r="M57">
-        <v>0.484375</v>
+        <v>0.4375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -4091,7 +4659,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -4099,7 +4667,7 @@
         <v>55</v>
       </c>
       <c r="M58">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -4107,7 +4675,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -4115,7 +4683,7 @@
         <v>56</v>
       </c>
       <c r="M59">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -4123,7 +4691,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -4131,7 +4699,7 @@
         <v>57</v>
       </c>
       <c r="M60">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -4139,7 +4707,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -4147,7 +4715,7 @@
         <v>58</v>
       </c>
       <c r="M61">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -4155,7 +4723,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -4163,7 +4731,7 @@
         <v>59</v>
       </c>
       <c r="M62">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -4171,7 +4739,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -4179,7 +4747,7 @@
         <v>60</v>
       </c>
       <c r="M63">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -4187,7 +4755,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -4195,7 +4763,7 @@
         <v>61</v>
       </c>
       <c r="M64">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -4203,7 +4771,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -4211,7 +4779,7 @@
         <v>62</v>
       </c>
       <c r="M65">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -4219,7 +4787,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -4227,7 +4795,7 @@
         <v>63</v>
       </c>
       <c r="M66">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -4235,7 +4803,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -4243,7 +4811,7 @@
         <v>64</v>
       </c>
       <c r="M67">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -4251,7 +4819,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -4259,7 +4827,7 @@
         <v>65</v>
       </c>
       <c r="M68">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -4267,7 +4835,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -4275,7 +4843,7 @@
         <v>66</v>
       </c>
       <c r="M69">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -4283,7 +4851,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -4291,7 +4859,7 @@
         <v>67</v>
       </c>
       <c r="M70">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -4299,7 +4867,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -4307,7 +4875,7 @@
         <v>68</v>
       </c>
       <c r="M71">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -4315,7 +4883,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -4323,7 +4891,7 @@
         <v>69</v>
       </c>
       <c r="M72">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -4331,7 +4899,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -4547,7 +5115,7 @@
         <v>83</v>
       </c>
       <c r="M86">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -4555,7 +5123,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -4563,7 +5131,7 @@
         <v>84</v>
       </c>
       <c r="M87">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -4571,7 +5139,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -4579,7 +5147,7 @@
         <v>85</v>
       </c>
       <c r="M88">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -4587,7 +5155,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -4595,7 +5163,7 @@
         <v>86</v>
       </c>
       <c r="M89">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -4603,7 +5171,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -4611,7 +5179,7 @@
         <v>87</v>
       </c>
       <c r="M90">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -4619,7 +5187,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -4627,7 +5195,7 @@
         <v>88</v>
       </c>
       <c r="M91">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -4635,7 +5203,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -4643,7 +5211,7 @@
         <v>89</v>
       </c>
       <c r="M92">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -4651,7 +5219,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -4659,7 +5227,7 @@
         <v>90</v>
       </c>
       <c r="M93">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -4667,7 +5235,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -4675,7 +5243,7 @@
         <v>91</v>
       </c>
       <c r="M94">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -4683,7 +5251,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -4691,7 +5259,7 @@
         <v>92</v>
       </c>
       <c r="M95">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -4699,7 +5267,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -4707,7 +5275,7 @@
         <v>93</v>
       </c>
       <c r="M96">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -4715,7 +5283,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -4723,7 +5291,7 @@
         <v>94</v>
       </c>
       <c r="M97">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -4731,7 +5299,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -4739,7 +5307,7 @@
         <v>95</v>
       </c>
       <c r="M98">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -4747,7 +5315,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -4755,7 +5323,7 @@
         <v>96</v>
       </c>
       <c r="M99">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -4763,7 +5331,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -4771,7 +5339,7 @@
         <v>97</v>
       </c>
       <c r="M100">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -4779,7 +5347,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -4787,7 +5355,7 @@
         <v>98</v>
       </c>
       <c r="M101">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -4795,7 +5363,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -4803,7 +5371,7 @@
         <v>99</v>
       </c>
       <c r="M102">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N102">
         <f t="shared" si="2"/>
@@ -4811,15 +5379,15 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M103">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -4827,12 +5395,12 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M104">
         <v>0.59375</v>
@@ -4848,10 +5416,10 @@
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M105">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -4859,15 +5427,15 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M106">
-        <v>0.46875</v>
+        <v>0.625</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -4875,15 +5443,15 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M107">
-        <v>0.453125</v>
+        <v>0.578125</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -4891,15 +5459,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M108">
-        <v>0.359375</v>
+        <v>0.40625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -4907,15 +5475,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>64.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M109">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -4923,15 +5491,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M110">
-        <v>0.546875</v>
+        <v>0.65625</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -4939,15 +5507,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M111">
-        <v>0.453125</v>
+        <v>0.53125</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -4955,7 +5523,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D39B94-6A93-4D03-9918-5565EE066D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D66EB1-2F4A-4607-AA62-95C286A09EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Model Name</t>
   </si>
@@ -195,7 +195,7 @@
     <t>Dense</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7feb8c3febb0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fe4b0374f70&gt;</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,18 +352,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,16 +369,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,75 +476,75 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$118</c:f>
+              <c:f>Sheet1!$O$2:$O$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6875</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0625</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.1875</c:v>
+                  <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.875</c:v>
+                  <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.75</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.5625</c:v>
+                  <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.8125</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.9375</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.9375</c:v>
+                  <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.9375</c:v>
+                  <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43.75</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.5</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.3125</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.1875</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.875</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.5</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>51.5625</c:v>
@@ -559,109 +553,109 @@
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.4375</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>59.375</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>59.375</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.375</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>59.375</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>57.8125</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57.8125</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>53.125</c:v>
@@ -694,148 +688,97 @@
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>42.1875</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,6 +2192,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203107</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490257</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>56628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AB0D85-E48A-4694-1F81-C02F6E6467E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602942" y="12326470"/>
+          <a:ext cx="2374246" cy="1387327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133069</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>54277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>529377</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F527AD1B-F5B4-6A11-91DB-4E7017FF5DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3249706" y="12254681"/>
+          <a:ext cx="2035168" cy="1526376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2592,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="68" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2612,10 +2649,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2627,16 +2664,16 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -2654,95 +2691,95 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -2760,95 +2797,95 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
@@ -2866,101 +2903,101 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="8">
@@ -2972,95 +3009,95 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
@@ -3078,95 +3115,95 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
@@ -3184,95 +3221,95 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
@@ -3290,95 +3327,95 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
@@ -3387,101 +3424,103 @@
       <c r="B68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="8">
+        <v>50</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="12"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="12"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="12"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="12"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="12"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="12"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="12"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
@@ -3496,95 +3535,95 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="12"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="12"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="12"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="12"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="12"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="12"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
@@ -3599,128 +3638,113 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="11"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="12"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="12"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="12"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="12"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="12"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="12"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="12"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="13"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:F94"/>
-    <mergeCell ref="G86:I94"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -3729,21 +3753,36 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:F94"/>
+    <mergeCell ref="G86:I94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3755,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3784,30 +3823,30 @@
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0.875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
@@ -3816,318 +3855,318 @@
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.859375</v>
+        <v>0.8125</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>14.0625</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.828125</v>
+        <v>0.796875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>17.1875</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>0.734375</v>
+        <v>0.59375</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>26.5625</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>0.640625</v>
+        <v>0.625</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>0.640625</v>
+        <v>0.609375</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>0.640625</v>
+        <v>0.609375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>0.625</v>
+        <v>0.609375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>0.546875</v>
+        <v>0.65625</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>0.59375</v>
+        <v>0.421875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>0.625</v>
+        <v>0.46875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>0.484375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
@@ -4136,14 +4175,14 @@
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
         <v>0.46875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
@@ -4152,574 +4191,574 @@
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>0.515625</v>
+        <v>0.46875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L50">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M52">
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M53">
-        <v>0.40625</v>
+        <v>0.46875</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M54">
-        <v>0.421875</v>
+        <v>0.46875</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M55">
-        <v>0.421875</v>
+        <v>0.46875</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M57">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M59">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M60">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L61">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M61">
         <v>0.46875</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
@@ -4728,14 +4767,14 @@
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M62">
         <v>0.46875</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
@@ -4744,14 +4783,14 @@
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M63">
         <v>0.46875</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
@@ -4760,14 +4799,14 @@
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M64">
         <v>0.46875</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
@@ -4776,14 +4815,14 @@
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M65">
         <v>0.46875</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
@@ -4792,14 +4831,14 @@
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M66">
         <v>0.46875</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
@@ -4808,14 +4847,14 @@
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M67">
         <v>0.46875</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
@@ -4824,14 +4863,14 @@
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M68">
         <v>0.46875</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
@@ -4840,14 +4879,14 @@
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M69">
         <v>0.46875</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
@@ -4856,14 +4895,14 @@
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M70">
         <v>0.46875</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
@@ -4872,514 +4911,514 @@
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M71">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M72">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M73">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M74">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M75">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M76">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M77">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M78">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M79">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M80">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M81">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M82">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M83">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M84">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M85">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M86">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M87">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M88">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M89">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M90">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M91">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M92">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M93">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M94">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M95">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M96">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M97">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M98">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M99">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M100">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M101">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
-      <c r="L102">
-        <v>99</v>
+      <c r="L102" t="s">
+        <v>30</v>
       </c>
       <c r="M102">
-        <v>0.484375</v>
-      </c>
-      <c r="N102">
+        <v>0.453125</v>
+      </c>
+      <c r="N102" t="e">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -5387,7 +5426,7 @@
         <v>30</v>
       </c>
       <c r="M103">
-        <v>0.484375</v>
+        <v>0.609375</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -5395,7 +5434,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -5403,7 +5442,7 @@
         <v>30</v>
       </c>
       <c r="M104">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -5411,7 +5450,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -5419,7 +5458,7 @@
         <v>30</v>
       </c>
       <c r="M105">
-        <v>0.484375</v>
+        <v>0.546875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -5427,7 +5466,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -5435,7 +5474,7 @@
         <v>30</v>
       </c>
       <c r="M106">
-        <v>0.625</v>
+        <v>0.46875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -5443,7 +5482,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -5451,7 +5490,7 @@
         <v>30</v>
       </c>
       <c r="M107">
-        <v>0.578125</v>
+        <v>0.453125</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -5459,7 +5498,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>42.1875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -5467,7 +5506,7 @@
         <v>30</v>
       </c>
       <c r="M108">
-        <v>0.40625</v>
+        <v>0.515625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -5475,7 +5514,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -5499,7 +5538,7 @@
         <v>30</v>
       </c>
       <c r="M110">
-        <v>0.65625</v>
+        <v>0.453125</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -5507,7 +5546,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>34.375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -5515,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="M111">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -5523,15 +5562,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M112">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -5539,15 +5578,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M113">
-        <v>0.421875</v>
+        <v>0.53125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -5555,12 +5594,12 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>57.8125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M114">
         <v>0.515625</v>
@@ -5576,10 +5615,10 @@
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M115">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -5587,15 +5626,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M116">
-        <v>0.515625</v>
+        <v>0.453125</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -5603,15 +5642,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M117">
-        <v>0.484375</v>
+        <v>0.390625</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -5619,15 +5658,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M118">
-        <v>0.484375</v>
+        <v>0.55737704918032782</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -5635,7 +5674,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>44.262295081967217</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D66EB1-2F4A-4607-AA62-95C286A09EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05DEE6-F986-4C0B-90D5-67AE3A2D5E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -192,10 +192,12 @@
     <t>F03_Dense</t>
   </si>
   <si>
-    <t>Dense</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fba881604f0&gt;</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7fe4b0374f70&gt;</t>
+    <t>Token Embeddings
++
+Dense</t>
   </si>
 </sst>
 </file>
@@ -352,12 +354,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,18 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,223 +486,223 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.75</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.3125</c:v>
+                  <c:v>23.4375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.125</c:v>
+                  <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.5</c:v>
+                  <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.625</c:v>
+                  <c:v>35.9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.0625</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.5</c:v>
+                  <c:v>35.9375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.75</c:v>
+                  <c:v>40.625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.375</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>57.8125</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>57.8125</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>53.125</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51.5625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>53.125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.125</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>54.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>54.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>54.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>54.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>54.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>54.6875</c:v>
@@ -2286,6 +2288,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147078</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574301</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>117110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF16312-56D1-5F47-0A45-EC9ACDCFDC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5546913" y="13909302"/>
+          <a:ext cx="2514319" cy="1503837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161084</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>105055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>462241</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>103304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE263DDE-FF5E-3570-6BC6-BEE30FA24357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3277721" y="13944320"/>
+          <a:ext cx="1940017" cy="1455013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2630,7 +2726,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="68" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+      <selection activeCell="B86" sqref="B86:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2649,10 +2745,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2664,16 +2760,16 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -2691,95 +2787,95 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -2797,95 +2893,95 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
@@ -2903,101 +2999,101 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="8">
@@ -3009,95 +3105,95 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="10"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="10"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="10"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="10"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="11"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
@@ -3115,95 +3211,95 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
@@ -3221,95 +3317,95 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="10"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="10"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="10"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="10"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="10"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="10"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="10"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="11"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
@@ -3327,95 +3423,95 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="10"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="10"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="10"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="10"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="10"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="10"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="11"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
@@ -3432,95 +3528,95 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="10"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="10"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="10"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="10"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="11"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
@@ -3529,108 +3625,110 @@
       <c r="B77" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="8">
+        <v>50</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="10"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="10"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="10"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="10"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="10"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3638,113 +3736,128 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="10"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="10"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="10"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="10"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="10"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="11"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:F94"/>
+    <mergeCell ref="G86:I94"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -3753,36 +3866,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:F94"/>
-    <mergeCell ref="G86:I94"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3795,7 +3893,7 @@
   <dimension ref="L1:O119"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3826,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -3834,7 +3932,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>12.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -3842,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -3850,7 +3948,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -3858,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -3866,7 +3964,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -3874,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.796875</v>
+        <v>0.765625</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -3882,7 +3980,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>20.3125</v>
+        <v>23.4375</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -3890,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.71875</v>
+        <v>0.609375</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -3898,7 +3996,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -3906,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -3914,7 +4012,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -3922,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.59375</v>
+        <v>0.640625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -3930,7 +4028,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -3954,7 +4052,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.625</v>
+        <v>0.71875</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -3962,7 +4060,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -3970,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.609375</v>
+        <v>0.6875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -3978,7 +4076,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -3986,7 +4084,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.609375</v>
+        <v>0.640625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -3994,7 +4092,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -4002,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.609375</v>
+        <v>0.625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -4010,7 +4108,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -4018,7 +4116,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -4026,7 +4124,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -4034,7 +4132,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -4042,7 +4140,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -4050,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.65625</v>
+        <v>0.578125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -4058,7 +4156,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>34.375</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -4082,7 +4180,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.421875</v>
+        <v>0.53125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -4090,7 +4188,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -4098,7 +4196,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.453125</v>
+        <v>0.484375</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -4106,7 +4204,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -4114,7 +4212,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -4122,7 +4220,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -4130,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -4138,7 +4236,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -4146,7 +4244,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.421875</v>
+        <v>0.453125</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -4154,7 +4252,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -4162,7 +4260,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -4170,7 +4268,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -4178,7 +4276,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -4186,7 +4284,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -4194,7 +4292,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -4202,7 +4300,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -4210,7 +4308,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -4218,7 +4316,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -4226,7 +4324,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -4234,7 +4332,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -4242,7 +4340,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -4250,7 +4348,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -4258,7 +4356,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -4266,7 +4364,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -4274,7 +4372,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -4282,7 +4380,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -4290,7 +4388,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -4298,7 +4396,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -4306,7 +4404,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -4314,7 +4412,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -4322,7 +4420,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -4330,7 +4428,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -4338,7 +4436,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -4346,7 +4444,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -4354,7 +4452,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -4362,7 +4460,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -4370,7 +4468,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -4378,7 +4476,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -4386,7 +4484,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -4394,7 +4492,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -4402,7 +4500,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -4410,7 +4508,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -4418,7 +4516,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -4426,7 +4524,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -4434,7 +4532,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -4442,7 +4540,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -4450,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -4458,7 +4556,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -4466,7 +4564,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -4474,7 +4572,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -4482,7 +4580,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -4490,7 +4588,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -4498,7 +4596,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -4506,7 +4604,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -4514,7 +4612,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -4522,7 +4620,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -4530,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -4538,7 +4636,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -4546,7 +4644,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.484375</v>
+        <v>0.421875</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -4554,7 +4652,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -4562,7 +4660,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -4570,7 +4668,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -4578,7 +4676,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -4586,7 +4684,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -4594,7 +4692,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -4602,7 +4700,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -4610,7 +4708,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.46875</v>
+        <v>0.421875</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -4618,7 +4716,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -4626,7 +4724,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -4634,7 +4732,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -4642,7 +4740,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -4650,7 +4748,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -4658,7 +4756,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -4666,7 +4764,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -4674,7 +4772,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -4682,7 +4780,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -4690,7 +4788,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -4698,7 +4796,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -4706,7 +4804,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -4714,7 +4812,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -4722,7 +4820,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -4730,7 +4828,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -4738,7 +4836,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -4746,7 +4844,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -4754,7 +4852,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -4762,7 +4860,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -4770,7 +4868,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -4778,7 +4876,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -4786,7 +4884,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -4794,7 +4892,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -4802,7 +4900,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -4810,7 +4908,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -4818,7 +4916,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -4826,7 +4924,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -4834,7 +4932,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -4842,7 +4940,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -4850,7 +4948,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -4858,7 +4956,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -4866,7 +4964,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -4874,7 +4972,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -4882,7 +4980,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -4890,7 +4988,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -4898,7 +4996,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -4906,7 +5004,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -4914,7 +5012,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -4922,7 +5020,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -4930,7 +5028,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -4938,7 +5036,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -4946,7 +5044,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -4954,7 +5052,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -4962,7 +5060,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -4970,7 +5068,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -4978,7 +5076,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -4986,7 +5084,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -5407,7 +5505,7 @@
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M102">
         <v>0.453125</v>
@@ -5423,10 +5521,10 @@
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>0.609375</v>
+        <v>0.625</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -5434,15 +5532,15 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>39.0625</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M104">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -5450,15 +5548,15 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M105">
-        <v>0.546875</v>
+        <v>0.5625</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -5466,15 +5564,15 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M106">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -5482,15 +5580,15 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M107">
-        <v>0.453125</v>
+        <v>0.390625</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -5498,15 +5596,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M108">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -5514,15 +5612,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M109">
-        <v>0.5625</v>
+        <v>0.546875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -5530,15 +5628,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M110">
-        <v>0.453125</v>
+        <v>0.515625</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -5546,12 +5644,12 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M111">
         <v>0.5</v>
@@ -5567,10 +5665,10 @@
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M112">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -5578,15 +5676,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M113">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -5594,15 +5692,15 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M114">
-        <v>0.515625</v>
+        <v>0.40625</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -5610,15 +5708,15 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M115">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -5626,15 +5724,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M116">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -5642,15 +5740,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M117">
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -5658,15 +5756,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M118">
-        <v>0.55737704918032782</v>
+        <v>0.57377049180327866</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -5674,7 +5772,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>44.262295081967217</v>
+        <v>42.622950819672134</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05DEE6-F986-4C0B-90D5-67AE3A2D5E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E711FE1-5386-4DA9-AA49-93F58642C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="F02" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="M04" sheetId="3" r:id="rId1"/>
+    <sheet name="F02" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Model Name</t>
   </si>
@@ -189,15 +190,103 @@
     <t>F03_T3+D1</t>
   </si>
   <si>
-    <t>F03_Dense</t>
-  </si>
-  <si>
     <t>&lt;__main__.DisplayOutputs object at 0x7fba881604f0&gt;</t>
   </si>
   <si>
-    <t>Token Embeddings
-+
-Dense</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speaker:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intelligibility:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Very Low</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speech Vision Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10.94</t>
+    </r>
+  </si>
+  <si>
+    <t>M04_E1.h5</t>
+  </si>
+  <si>
+    <t>M04_E12.h5</t>
+  </si>
+  <si>
+    <t>M04_E123</t>
+  </si>
+  <si>
+    <t>M04_E1234</t>
+  </si>
+  <si>
+    <t>M04_E12345</t>
+  </si>
+  <si>
+    <t>M04_TE</t>
+  </si>
+  <si>
+    <t>M04_T3+D123</t>
+  </si>
+  <si>
+    <t>M04_T3+D12</t>
+  </si>
+  <si>
+    <t>M04_T3+D1</t>
   </si>
 </sst>
 </file>
@@ -336,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,18 +443,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,12 +460,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2722,11 +2819,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
+  <dimension ref="A1:J94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="4"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="4"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="4"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" s="4"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="19"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="D5:F13"/>
+    <mergeCell ref="G5:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B94"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2745,10 +3982,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2760,16 +3997,16 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -2787,95 +4024,95 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -2893,95 +4130,95 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
@@ -2999,101 +4236,101 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="8">
@@ -3105,95 +4342,95 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
@@ -3211,95 +4448,95 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
@@ -3317,95 +4554,95 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
@@ -3423,95 +4660,95 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
@@ -3528,95 +4765,95 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
@@ -3633,231 +4870,221 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="3"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="3"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="3"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="3"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="3"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="3"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="3"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="4"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="13"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="19"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:F94"/>
-    <mergeCell ref="G86:I94"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+  <mergeCells count="48">
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -3866,21 +5093,31 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3888,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
@@ -5505,7 +6742,7 @@
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M102">
         <v>0.453125</v>
@@ -5521,7 +6758,7 @@
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M103">
         <v>0.625</v>
@@ -5537,7 +6774,7 @@
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M104">
         <v>0.40625</v>
@@ -5553,7 +6790,7 @@
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M105">
         <v>0.5625</v>
@@ -5569,7 +6806,7 @@
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M106">
         <v>0.484375</v>
@@ -5585,7 +6822,7 @@
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M107">
         <v>0.390625</v>
@@ -5601,7 +6838,7 @@
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M108">
         <v>0.546875</v>
@@ -5617,7 +6854,7 @@
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M109">
         <v>0.546875</v>
@@ -5633,7 +6870,7 @@
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M110">
         <v>0.515625</v>
@@ -5649,7 +6886,7 @@
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M111">
         <v>0.5</v>
@@ -5665,7 +6902,7 @@
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M112">
         <v>0.453125</v>
@@ -5681,7 +6918,7 @@
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M113">
         <v>0.5625</v>
@@ -5697,7 +6934,7 @@
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M114">
         <v>0.40625</v>
@@ -5713,7 +6950,7 @@
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M115">
         <v>0.53125</v>
@@ -5729,7 +6966,7 @@
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M116">
         <v>0.46875</v>
@@ -5745,7 +6982,7 @@
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M117">
         <v>0.453125</v>
@@ -5761,7 +6998,7 @@
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M118">
         <v>0.57377049180327866</v>

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E711FE1-5386-4DA9-AA49-93F58642C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E28E9-6810-403A-BF53-6F8822044A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="5130" yWindow="1013" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Model Name</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>M04_T3+D1</t>
   </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f34552f53d0&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -425,10 +428,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,20 +472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,304 +578,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.6875</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.4375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.625</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.25</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.5</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.1875</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.5625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.875</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.5625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.5625</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56.25</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.6875</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.8125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>57.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>54.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>54.6875</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,6 +1630,105 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9D18D1-205F-1C2D-F93F-668EFB918E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767388" y="814387"/>
+          <a:ext cx="2395537" cy="1423763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173037</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5F542F-8A01-BDE9-C01E-D3AFE3BE03B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473450" y="771525"/>
+          <a:ext cx="2032000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2482,7 +2579,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2820,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2857,1094 +2954,952 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="C5" s="9">
+        <f>100-93</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="10"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="10"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="10"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="10"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="10"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="10"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="10"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="10"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="10"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="10"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="10"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="10"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="10"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="11"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="10"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="10"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="10"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="10"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="10"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="10"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="10"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="10"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="10"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="10"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="10"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="3"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="10"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="10"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="10"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="4"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="11"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="3"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="10"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="3"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="10"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="10"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="3"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="10"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="3"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="10"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="3"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="10"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="3"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="10"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="11"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="10"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="10"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="10"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="10"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="10"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="10"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="3"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="10"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="3"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="10"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="3"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="10"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="3"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="3"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="3"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" s="3"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" s="3"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" s="19"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="18"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -3953,16 +3908,57 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F97D4-1A77-4245-8120-8092DD2AD5B3}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
@@ -3997,1094 +3993,999 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="10"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="10"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="10"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="10"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="10"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="10"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="11"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="10"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="10"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="10"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="10"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="10"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="10"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="10"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="10"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="10"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="10"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="10"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="3"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="10"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="10"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="10"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="4"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="11"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="3"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="10"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="3"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="10"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="10"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="3"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="10"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="3"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="10"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="3"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="10"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="3"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="10"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="11"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>50</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="10"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="10"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="10"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="10"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="10"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="10"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="3"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="10"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="4"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>50</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="3"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="10"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="3"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="10"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="3"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="3"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="3"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" s="3"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" s="3"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" s="19"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="18"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5093,31 +4994,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5129,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A6" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5145,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5153,7 +5044,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5161,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5169,7 +5060,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>15.625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5177,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5185,7 +5076,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5193,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.78125</v>
+        <v>0.984375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5201,7 +5092,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5209,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.765625</v>
+        <v>0.96875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5217,7 +5108,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>23.4375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5225,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.609375</v>
+        <v>0.921875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5233,7 +5124,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5241,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.59375</v>
+        <v>0.953125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5249,7 +5140,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5257,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.640625</v>
+        <v>0.9375</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5265,7 +5156,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5273,7 +5164,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.625</v>
+        <v>0.953125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5281,7 +5172,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5289,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.71875</v>
+        <v>0.953125</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5297,7 +5188,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5305,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.6875</v>
+        <v>0.9375</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5313,7 +5204,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>31.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5321,7 +5212,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.640625</v>
+        <v>0.953125</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5329,7 +5220,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5337,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.625</v>
+        <v>0.984375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5345,7 +5236,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5353,7 +5244,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.640625</v>
+        <v>0.953125</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5361,7 +5252,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>35.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5369,7 +5260,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.59375</v>
+        <v>0.90625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5377,7 +5268,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>40.625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5385,7 +5276,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.578125</v>
+        <v>0.96875</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5393,7 +5284,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5401,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.484375</v>
+        <v>0.953125</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5409,7 +5300,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5417,7 +5308,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.53125</v>
+        <v>0.9375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5425,7 +5316,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5433,7 +5324,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.484375</v>
+        <v>0.953125</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5441,7 +5332,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5449,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.484375</v>
+        <v>0.9375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5457,7 +5348,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5465,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.4375</v>
+        <v>0.953125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5473,7 +5364,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5481,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.453125</v>
+        <v>0.9375</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5489,7 +5380,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5497,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.453125</v>
+        <v>0.921875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5505,7 +5396,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5513,7 +5404,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5521,7 +5412,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5529,7 +5420,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.421875</v>
+        <v>0.90625</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5537,7 +5428,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5545,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5553,7 +5444,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5561,7 +5452,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5569,7 +5460,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5577,7 +5468,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5585,7 +5476,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5593,7 +5484,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5601,7 +5492,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5609,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5617,7 +5508,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5625,7 +5516,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5633,7 +5524,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5641,7 +5532,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5649,7 +5540,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5657,7 +5548,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5665,7 +5556,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5673,7 +5564,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5681,7 +5572,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5689,7 +5580,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5697,7 +5588,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5705,7 +5596,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5713,7 +5604,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5721,7 +5612,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5729,7 +5620,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5737,7 +5628,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5745,7 +5636,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5753,7 +5644,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5761,7 +5652,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5769,7 +5660,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5777,7 +5668,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5785,7 +5676,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5793,7 +5684,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5801,7 +5692,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5809,7 +5700,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5817,7 +5708,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5825,7 +5716,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5833,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5841,7 +5732,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5849,7 +5740,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5857,7 +5748,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5865,7 +5756,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5873,7 +5764,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5881,7 +5772,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.421875</v>
+        <v>0.921875</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5889,7 +5780,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5897,7 +5788,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.421875</v>
+        <v>0.90625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5905,7 +5796,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5913,7 +5804,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.421875</v>
+        <v>0.90625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5921,7 +5812,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5929,7 +5820,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.421875</v>
+        <v>0.90625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5937,7 +5828,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5945,7 +5836,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.421875</v>
+        <v>0.90625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5953,7 +5844,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5961,7 +5852,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5969,7 +5860,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5977,7 +5868,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5985,7 +5876,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5993,7 +5884,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6001,7 +5892,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6009,7 +5900,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6017,7 +5908,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6025,7 +5916,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6033,7 +5924,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6041,7 +5932,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6049,7 +5940,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6057,7 +5948,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6065,7 +5956,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6073,7 +5964,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6081,7 +5972,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6089,7 +5980,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6097,7 +5988,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6105,7 +5996,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6113,7 +6004,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6121,7 +6012,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6129,7 +6020,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6137,7 +6028,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6145,7 +6036,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6153,7 +6044,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6161,7 +6052,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6169,7 +6060,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6177,7 +6068,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6185,7 +6076,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6193,7 +6084,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6201,7 +6092,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6209,7 +6100,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6217,7 +6108,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6225,7 +6116,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6233,7 +6124,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6241,7 +6132,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6249,7 +6140,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6257,7 +6148,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6265,7 +6156,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6273,7 +6164,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6281,7 +6172,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6289,7 +6180,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6297,7 +6188,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6305,7 +6196,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6313,7 +6204,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.4375</v>
+        <v>0.90625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6321,7 +6212,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6329,7 +6220,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6337,7 +6228,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6345,7 +6236,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6353,7 +6244,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6361,7 +6252,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6369,7 +6260,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6377,7 +6268,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6385,7 +6276,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6393,7 +6284,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6401,7 +6292,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6409,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6417,7 +6308,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6425,7 +6316,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6433,7 +6324,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6441,7 +6332,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6449,7 +6340,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6457,7 +6348,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6465,7 +6356,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6473,7 +6364,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6481,7 +6372,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6489,7 +6380,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6497,7 +6388,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6505,7 +6396,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6513,7 +6404,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6521,7 +6412,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6529,7 +6420,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6537,7 +6428,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6545,7 +6436,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6553,7 +6444,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6561,7 +6452,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6569,7 +6460,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6577,7 +6468,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6585,7 +6476,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6593,7 +6484,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6601,7 +6492,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6609,7 +6500,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6617,7 +6508,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6625,7 +6516,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6633,7 +6524,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.453125</v>
+        <v>0.90625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6641,7 +6532,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6649,7 +6540,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6657,7 +6548,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6665,7 +6556,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6673,7 +6564,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6681,7 +6572,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6689,7 +6580,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6697,7 +6588,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6705,7 +6596,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6713,7 +6604,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6721,7 +6612,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6729,7 +6620,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6737,15 +6628,15 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M102">
-        <v>0.453125</v>
+        <v>0.890625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6753,15 +6644,15 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M103">
-        <v>0.625</v>
+        <v>0.90625</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6769,15 +6660,15 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M104">
-        <v>0.40625</v>
+        <v>0.9375</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6785,15 +6676,15 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M105">
-        <v>0.5625</v>
+        <v>0.953125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6801,15 +6692,15 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M106">
-        <v>0.484375</v>
+        <v>0.9375</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6817,15 +6708,15 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M107">
-        <v>0.390625</v>
+        <v>0.9375</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6833,15 +6724,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M108">
-        <v>0.546875</v>
+        <v>0.90625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6849,15 +6740,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M109">
-        <v>0.546875</v>
+        <v>0.921875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6865,15 +6756,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M110">
-        <v>0.515625</v>
+        <v>0.96875</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6881,15 +6772,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M111">
-        <v>0.5</v>
+        <v>0.9375</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6897,15 +6788,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M112">
-        <v>0.453125</v>
+        <v>0.921875</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6913,15 +6804,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M113">
-        <v>0.5625</v>
+        <v>0.96875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6929,15 +6820,15 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M114">
-        <v>0.40625</v>
+        <v>1</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6945,7 +6836,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E28E9-6810-403A-BF53-6F8822044A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C8BAD-5B6D-4AAF-BC46-6CE8CD2F698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1013" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f34552f53d0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f1cf7cd95b0&gt;</t>
   </si>
 </sst>
 </file>
@@ -436,6 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,15 +450,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,15 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -581,301 +581,301 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.6875</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.25</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,6 +1717,100 @@
         <a:xfrm>
           <a:off x="3473450" y="771525"/>
           <a:ext cx="2032000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91909</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF7A9C6-2FB1-BDC1-BB02-D120BE4E84B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689935" y="2481513"/>
+          <a:ext cx="2481511" cy="1490080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181030</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495747</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69682DDE-56F8-2ED4-A88D-2801CA2F38B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3481360" y="2498223"/>
+          <a:ext cx="1960703" cy="1470527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,7 +3014,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2939,10 +3033,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -2954,952 +3048,994 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -3908,46 +4044,6 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3978,10 +4074,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3993,999 +4089,989 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>50</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>50</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -4994,21 +5080,31 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5020,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5052,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5060,7 +5156,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5084,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.984375</v>
+        <v>0.953125</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5092,7 +5188,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5100,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5108,7 +5204,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5116,7 +5212,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5124,7 +5220,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5148,7 +5244,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5156,7 +5252,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5180,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5188,7 +5284,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5196,7 +5292,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5204,7 +5300,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5212,7 +5308,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5220,7 +5316,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5228,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5236,7 +5332,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5244,7 +5340,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.953125</v>
+        <v>0.921875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5252,7 +5348,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5260,7 +5356,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5268,7 +5364,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5292,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5300,7 +5396,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5308,7 +5404,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5316,7 +5412,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5340,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5348,7 +5444,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5356,7 +5452,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.953125</v>
+        <v>0.921875</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5364,7 +5460,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5388,7 +5484,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5396,7 +5492,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5404,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5412,7 +5508,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5420,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5428,7 +5524,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5436,7 +5532,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5444,7 +5540,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5452,7 +5548,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5460,7 +5556,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5564,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5476,7 +5572,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5484,7 +5580,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5492,7 +5588,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5500,7 +5596,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5508,7 +5604,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5516,7 +5612,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5524,7 +5620,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5532,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5540,7 +5636,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5644,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5556,7 +5652,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5564,7 +5660,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5572,7 +5668,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5580,7 +5676,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5588,7 +5684,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5596,7 +5692,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5604,7 +5700,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5612,7 +5708,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5620,7 +5716,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5724,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5636,7 +5732,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5740,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5652,7 +5748,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5756,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5668,7 +5764,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5772,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5684,7 +5780,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5788,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5700,7 +5796,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5804,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5716,7 +5812,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5820,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5732,7 +5828,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5748,7 +5844,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5852,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5764,7 +5860,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5868,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5780,7 +5876,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5884,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5796,7 +5892,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5900,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5812,7 +5908,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5916,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5828,7 +5924,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5932,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5844,7 +5940,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5948,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5860,7 +5956,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5964,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5876,7 +5972,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5980,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5996,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5908,7 +6004,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6012,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5924,7 +6020,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6028,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5940,7 +6036,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6044,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5956,7 +6052,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6060,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5972,7 +6068,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6076,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5988,7 +6084,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6092,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6004,7 +6100,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6108,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6020,7 +6116,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6124,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6140,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6052,7 +6148,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6156,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6068,7 +6164,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6172,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6084,7 +6180,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6188,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6100,7 +6196,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6204,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6116,7 +6212,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6220,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6132,7 +6228,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6236,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6148,7 +6244,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6252,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6164,7 +6260,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6268,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6180,7 +6276,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6284,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6196,7 +6292,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6300,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6212,7 +6308,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6316,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6228,7 +6324,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6332,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6244,7 +6340,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6348,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6260,7 +6356,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6276,7 +6372,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6380,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6396,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6308,7 +6404,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6412,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6324,7 +6420,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6428,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6340,7 +6436,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6444,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6356,7 +6452,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6460,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6372,7 +6468,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6476,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6388,7 +6484,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6492,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6404,7 +6500,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6508,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6420,7 +6516,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6524,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6436,7 +6532,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6540,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6452,7 +6548,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6556,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6468,7 +6564,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6476,7 +6572,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6484,7 +6580,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6588,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6500,7 +6596,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6508,7 +6604,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6516,7 +6612,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6620,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6532,7 +6628,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6636,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6548,7 +6644,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6652,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6564,7 +6660,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6668,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6580,7 +6676,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6684,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6596,7 +6692,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6700,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6612,7 +6708,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6716,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6628,7 +6724,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6732,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6748,7 @@
         <v>41</v>
       </c>
       <c r="M103">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6660,7 +6756,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6764,7 @@
         <v>41</v>
       </c>
       <c r="M104">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6676,7 +6772,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6780,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6796,7 @@
         <v>41</v>
       </c>
       <c r="M106">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6708,7 +6804,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6812,7 @@
         <v>41</v>
       </c>
       <c r="M107">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6828,7 @@
         <v>41</v>
       </c>
       <c r="M108">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6740,7 +6836,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6844,7 @@
         <v>41</v>
       </c>
       <c r="M109">
-        <v>0.921875</v>
+        <v>0.90625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6756,7 +6852,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6860,7 @@
         <v>41</v>
       </c>
       <c r="M110">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6772,7 +6868,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6796,7 +6892,7 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <v>0.921875</v>
+        <v>0.984375</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6804,7 +6900,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C8BAD-5B6D-4AAF-BC46-6CE8CD2F698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22BEE7-65AB-44A0-AEE2-88EC70CC15EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="6593" yWindow="1853" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f1cf7cd95b0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f8938612af0&gt;</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,12 +446,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,14 +466,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -581,67 +581,67 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5625</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6875</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>9.375</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>6.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.25</c:v>
@@ -653,13 +653,13 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.25</c:v>
@@ -674,208 +674,208 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.25</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,6 +1811,100 @@
         <a:xfrm>
           <a:off x="3481360" y="2498223"/>
           <a:ext cx="1960703" cy="1470527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185567</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459538</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C640BB20-4FB8-5CB9-977A-1D185391011B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783593" y="4169275"/>
+          <a:ext cx="2371143" cy="1383631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>138515</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392697</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A69B55-40A4-1EB0-69C3-D6716E6F8D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438845" y="4160920"/>
+          <a:ext cx="1900168" cy="1429511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3013,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="57" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3033,10 +3127,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3048,994 +3142,956 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4044,6 +4100,46 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4074,10 +4170,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4089,989 +4185,999 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>50</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>50</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5080,31 +5186,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5117,7 +5213,7 @@
   <dimension ref="L1:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M114"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5148,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5156,7 +5252,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5180,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.953125</v>
+        <v>0.96875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5188,7 +5284,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5212,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5220,7 +5316,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5228,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.953125</v>
+        <v>0.96875</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5236,7 +5332,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5244,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5252,7 +5348,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5260,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5268,7 +5364,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5276,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5284,7 +5380,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5292,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.953125</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5300,7 +5396,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5308,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.984375</v>
+        <v>0.921875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5316,7 +5412,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5324,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5332,7 +5428,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5340,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.921875</v>
+        <v>0.96875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5348,7 +5444,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5356,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5364,7 +5460,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5372,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5380,7 +5476,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5388,7 +5484,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5396,7 +5492,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5404,7 +5500,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.953125</v>
+        <v>0.890625</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5412,7 +5508,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5420,7 +5516,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5428,7 +5524,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5436,7 +5532,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5444,7 +5540,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5452,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.921875</v>
+        <v>0.90625</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5460,7 +5556,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5564,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5476,7 +5572,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5532,7 +5628,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5540,7 +5636,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5644,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5556,7 +5652,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5564,7 +5660,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5572,7 +5668,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5740,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5652,7 +5748,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5756,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5668,7 +5764,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5772,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5684,7 +5780,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5788,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5700,7 +5796,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5804,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5716,7 +5812,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5820,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5732,7 +5828,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5836,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5748,7 +5844,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5852,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5764,7 +5860,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5780,7 +5876,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5884,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5796,7 +5892,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5900,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5812,7 +5908,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5916,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5828,7 +5924,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5932,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5844,7 +5940,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5948,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5860,7 +5956,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5964,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5876,7 +5972,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5980,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5996,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5908,7 +6004,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6012,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5924,7 +6020,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6028,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5940,7 +6036,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6044,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5956,7 +6052,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5972,7 +6068,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6076,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5988,7 +6084,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6092,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6004,7 +6100,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6108,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6020,7 +6116,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6124,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6140,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6052,7 +6148,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6156,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6068,7 +6164,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6172,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6084,7 +6180,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6188,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6100,7 +6196,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6204,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6116,7 +6212,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6220,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6132,7 +6228,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6236,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6148,7 +6244,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6252,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6164,7 +6260,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6268,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6180,7 +6276,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6284,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6196,7 +6292,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6300,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6212,7 +6308,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6316,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6228,7 +6324,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6332,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6244,7 +6340,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6348,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6260,7 +6356,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6364,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6276,7 +6372,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6380,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6396,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6308,7 +6404,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6412,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6324,7 +6420,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6428,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6340,7 +6436,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6356,7 +6452,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6372,7 +6468,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6476,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6388,7 +6484,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6492,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6404,7 +6500,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6508,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6420,7 +6516,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6524,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6436,7 +6532,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6540,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6452,7 +6548,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6556,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6468,7 +6564,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6476,7 +6572,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6484,7 +6580,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6588,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6500,7 +6596,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6508,7 +6604,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6516,7 +6612,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6620,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6532,7 +6628,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6636,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6548,7 +6644,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6652,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6564,7 +6660,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6668,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6580,7 +6676,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6684,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6596,7 +6692,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6700,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6612,7 +6708,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6716,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6628,7 +6724,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6732,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6748,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6660,7 +6756,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6764,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6676,7 +6772,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6780,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6796,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6708,7 +6804,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6812,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6828,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6740,7 +6836,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6860,7 @@
         <v>41</v>
       </c>
       <c r="M104">
-        <v>0.921875</v>
+        <v>0.90625</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6772,7 +6868,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6780,7 +6876,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6788,7 +6884,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6828,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="M108">
-        <v>0.875</v>
+        <v>0.890625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6836,7 +6932,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6844,7 +6940,7 @@
         <v>41</v>
       </c>
       <c r="M109">
-        <v>0.90625</v>
+        <v>0.859375</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6852,7 +6948,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6860,7 +6956,7 @@
         <v>41</v>
       </c>
       <c r="M110">
-        <v>0.984375</v>
+        <v>1</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6868,7 +6964,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6876,7 +6972,7 @@
         <v>41</v>
       </c>
       <c r="M111">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6884,7 +6980,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6892,7 +6988,7 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6900,7 +6996,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6924,7 +7020,7 @@
         <v>41</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6932,7 +7028,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22BEE7-65AB-44A0-AEE2-88EC70CC15EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22742B43-0748-4A87-A7B4-8A1ED4C1DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6593" yWindow="1853" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="9345" yWindow="2332" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f8938612af0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f6e60459bb0&gt;</t>
   </si>
 </sst>
 </file>
@@ -436,6 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,15 +450,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,15 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -581,16 +581,16 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6875</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.375</c:v>
@@ -599,283 +599,283 @@
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.6875</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.5</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.5625</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.9375</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.25</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.25</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.25</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.375</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.375</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.375</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,6 +1905,100 @@
         <a:xfrm>
           <a:off x="3438845" y="4160920"/>
           <a:ext cx="1900168" cy="1429511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59783FC4-5C91-2750-30CB-B365A8DCF137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810251" y="5693834"/>
+          <a:ext cx="2412999" cy="1419411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F285E25-F920-53F6-C1F0-CCAAAD106750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3471334" y="5662084"/>
+          <a:ext cx="1989665" cy="1492249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3107,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="57" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="45" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3127,10 +3221,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3142,956 +3236,998 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="C32" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4100,46 +4236,6 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4170,10 +4266,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4185,999 +4281,989 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>50</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>50</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5186,21 +5272,31 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5212,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A6" zoomScale="90" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5244,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5252,7 +5348,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5260,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5268,7 +5364,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5276,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5284,7 +5380,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5292,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5300,7 +5396,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5340,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.953125</v>
+        <v>0.96875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5348,7 +5444,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5356,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5364,7 +5460,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5372,7 +5468,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5380,7 +5476,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5388,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5396,7 +5492,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5404,7 +5500,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5412,7 +5508,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5420,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5428,7 +5524,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5436,7 +5532,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5444,7 +5540,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.875</v>
+        <v>0.984375</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5476,7 +5572,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5484,7 +5580,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5492,7 +5588,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5500,7 +5596,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.890625</v>
+        <v>0.984375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5508,7 +5604,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5516,7 +5612,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5524,7 +5620,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5644,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5556,7 +5652,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5564,7 +5660,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5572,7 +5668,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5580,7 +5676,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5588,7 +5684,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5596,7 +5692,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5604,7 +5700,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5612,7 +5708,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5620,7 +5716,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5724,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.921875</v>
+        <v>0.984375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5636,7 +5732,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5740,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5652,7 +5748,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5756,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5668,7 +5764,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5772,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5684,7 +5780,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5788,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5700,7 +5796,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5804,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5716,7 +5812,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5820,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5732,7 +5828,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5836,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5748,7 +5844,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5852,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5764,7 +5860,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5868,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5780,7 +5876,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5884,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5796,7 +5892,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5900,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5812,7 +5908,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5828,7 +5924,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5932,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5844,7 +5940,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5860,7 +5956,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5964,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5876,7 +5972,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5980,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5996,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.921875</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5908,7 +6004,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6012,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5924,7 +6020,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6028,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5940,7 +6036,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6044,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5956,7 +6052,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6060,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5972,7 +6068,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6076,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5988,7 +6084,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6092,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6004,7 +6100,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6108,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6020,7 +6116,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6124,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6140,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -6052,7 +6148,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6156,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6068,7 +6164,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6172,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6084,7 +6180,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6188,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6100,7 +6196,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6204,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6116,7 +6212,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6220,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6132,7 +6228,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6236,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6148,7 +6244,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6252,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6164,7 +6260,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6268,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6180,7 +6276,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6284,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6196,7 +6292,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6300,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6212,7 +6308,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6316,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6228,7 +6324,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6332,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6244,7 +6340,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6260,7 +6356,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6364,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6276,7 +6372,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6380,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6396,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6308,7 +6404,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6412,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6324,7 +6420,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6428,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6340,7 +6436,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6444,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6356,7 +6452,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6460,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6372,7 +6468,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6476,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.90625</v>
+        <v>0.984375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6388,7 +6484,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6492,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6404,7 +6500,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6508,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.90625</v>
+        <v>0.984375</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6420,7 +6516,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6524,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.90625</v>
+        <v>0.984375</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6436,7 +6532,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6540,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6452,7 +6548,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6556,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6468,7 +6564,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6476,7 +6572,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6484,7 +6580,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6500,7 +6596,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6508,7 +6604,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6516,7 +6612,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6620,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6532,7 +6628,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6636,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6548,7 +6644,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6652,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6564,7 +6660,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6668,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6580,7 +6676,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6684,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6596,7 +6692,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6700,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6612,7 +6708,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6716,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6628,7 +6724,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6732,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6748,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6660,7 +6756,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6764,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6676,7 +6772,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6780,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6796,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6708,7 +6804,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6812,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6828,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6740,7 +6836,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6844,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6756,7 +6852,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6860,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6772,7 +6868,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6780,7 +6876,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6788,7 +6884,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6796,7 +6892,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6804,7 +6900,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6812,7 +6908,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6820,7 +6916,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6828,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6836,7 +6932,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6860,7 +6956,7 @@
         <v>41</v>
       </c>
       <c r="M104">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6868,7 +6964,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6876,7 +6972,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6884,7 +6980,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6892,7 +6988,7 @@
         <v>41</v>
       </c>
       <c r="M106">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6900,7 +6996,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6924,7 +7020,7 @@
         <v>41</v>
       </c>
       <c r="M108">
-        <v>0.890625</v>
+        <v>0.90625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6932,7 +7028,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>10.9375</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6940,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="M109">
-        <v>0.859375</v>
+        <v>0.90625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6948,7 +7044,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>14.0625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6956,7 +7052,7 @@
         <v>41</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6964,7 +7060,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6972,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="M111">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6980,7 +7076,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -7004,7 +7100,7 @@
         <v>41</v>
       </c>
       <c r="M113">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -7012,7 +7108,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -7020,7 +7116,7 @@
         <v>41</v>
       </c>
       <c r="M114">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -7028,7 +7124,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>14.28571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22742B43-0748-4A87-A7B4-8A1ED4C1DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0F3C3-186C-4BC9-AD95-9EC0244D5715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="2332" windowWidth="15390" windowHeight="9443" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f6e60459bb0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7efae030a3d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,12 +446,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,14 +466,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -584,220 +584,220 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6875</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6875</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.5625</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.5625</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.25</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5625</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.25</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6875</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4.6875</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1.5625</c:v>
@@ -806,76 +806,76 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,6 +1999,100 @@
         <a:xfrm>
           <a:off x="3471334" y="5662084"/>
           <a:ext cx="1989665" cy="1492249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398916</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00046E3-6FA1-4D8C-DD03-37AF912EA314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5662084" y="7260167"/>
+          <a:ext cx="2420332" cy="1449916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A064442-84FE-4DA7-14AE-F9680BA6AFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450167" y="7313084"/>
+          <a:ext cx="1862667" cy="1397000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3202,7 +3296,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="45" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="G50" sqref="G50:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3221,10 +3315,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3236,998 +3330,960 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>6</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="C41" s="9">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4236,6 +4292,46 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4266,10 +4362,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4281,989 +4377,999 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>50</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>50</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5272,31 +5378,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5309,7 +5405,7 @@
   <dimension ref="L1:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M114"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5356,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.953125</v>
+        <v>0.96875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5364,7 +5460,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5372,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5380,7 +5476,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5388,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5396,7 +5492,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5404,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.90625</v>
+        <v>0.984375</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5412,7 +5508,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5420,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5428,7 +5524,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5452,7 +5548,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.921875</v>
+        <v>0.984375</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5460,7 +5556,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5476,7 +5572,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5484,7 +5580,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5492,7 +5588,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5500,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.953125</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5508,7 +5604,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5516,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5524,7 +5620,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5532,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5540,7 +5636,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5556,7 +5652,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5564,7 +5660,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.984375</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5572,7 +5668,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5580,7 +5676,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5588,7 +5684,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5596,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5604,7 +5700,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5724,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5636,7 +5732,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5756,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5668,7 +5764,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5788,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5700,7 +5796,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5804,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5716,7 +5812,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5836,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5748,7 +5844,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5852,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5764,7 +5860,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5868,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5780,7 +5876,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5884,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5796,7 +5892,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5900,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5812,7 +5908,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5916,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5828,7 +5924,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5932,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5844,7 +5940,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5948,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5860,7 +5956,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5964,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5876,7 +5972,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5980,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5996,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5908,7 +6004,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6012,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5924,7 +6020,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6028,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5940,7 +6036,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6044,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5956,7 +6052,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6060,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5972,7 +6068,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6076,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5988,7 +6084,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6092,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -6004,7 +6100,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6108,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -6020,7 +6116,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6124,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6140,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -6052,7 +6148,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6156,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -6068,7 +6164,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6172,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -6084,7 +6180,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6188,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6100,7 +6196,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6204,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6116,7 +6212,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6220,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6132,7 +6228,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6236,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -6148,7 +6244,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6252,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6164,7 +6260,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6268,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6180,7 +6276,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6284,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6196,7 +6292,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6300,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6212,7 +6308,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6316,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6228,7 +6324,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6332,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6244,7 +6340,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6348,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6260,7 +6356,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6364,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6276,7 +6372,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6380,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6396,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6308,7 +6404,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6412,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6324,7 +6420,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6428,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6340,7 +6436,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6444,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6356,7 +6452,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6460,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6372,7 +6468,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6476,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6388,7 +6484,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6492,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6404,7 +6500,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6508,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6420,7 +6516,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6524,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6436,7 +6532,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6540,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6452,7 +6548,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6556,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6468,7 +6564,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6588,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6500,7 +6596,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6636,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6548,7 +6644,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6564,7 +6660,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6580,7 +6676,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6684,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6596,7 +6692,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6700,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6612,7 +6708,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6716,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6628,7 +6724,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6732,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6748,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6660,7 +6756,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6764,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6676,7 +6772,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6780,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6796,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6708,7 +6804,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6812,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6828,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6740,7 +6836,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6844,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6756,7 +6852,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6860,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6772,7 +6868,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6780,7 +6876,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6788,7 +6884,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6796,7 +6892,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6804,7 +6900,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6812,7 +6908,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6820,7 +6916,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6828,7 +6924,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6836,7 +6932,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6844,7 +6940,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6852,7 +6948,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6860,7 +6956,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6868,7 +6964,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6876,7 +6972,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6884,7 +6980,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6892,7 +6988,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6900,7 +6996,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6908,7 +7004,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6916,7 +7012,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6924,7 +7020,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6932,7 +7028,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6940,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="M103">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6948,7 +7044,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6956,7 +7052,7 @@
         <v>41</v>
       </c>
       <c r="M104">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6964,7 +7060,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6972,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6980,7 +7076,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6988,7 +7084,7 @@
         <v>41</v>
       </c>
       <c r="M106">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6996,7 +7092,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -7004,7 +7100,7 @@
         <v>41</v>
       </c>
       <c r="M107">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -7012,7 +7108,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -7036,7 +7132,7 @@
         <v>41</v>
       </c>
       <c r="M109">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -7044,7 +7140,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -7052,7 +7148,7 @@
         <v>41</v>
       </c>
       <c r="M110">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -7060,7 +7156,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -7068,7 +7164,7 @@
         <v>41</v>
       </c>
       <c r="M111">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -7076,7 +7172,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -7084,7 +7180,7 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -7092,7 +7188,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -7100,7 +7196,7 @@
         <v>41</v>
       </c>
       <c r="M113">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -7108,7 +7204,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0F3C3-186C-4BC9-AD95-9EC0244D5715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A99E05D-F2F0-44A7-913B-41064D437170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -289,7 +289,7 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7efae030a3d0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f3ebc643100&gt;</t>
   </si>
 </sst>
 </file>
@@ -436,6 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,15 +450,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,15 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -581,301 +581,301 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5625</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5625</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.25</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.6875</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.125</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5625</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5625</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5625</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6875</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5625</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6875</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>9.375</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.5625</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.5625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,6 +2101,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3DF23D-66FE-FA39-CA88-D0FB29038ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5683251" y="8847669"/>
+          <a:ext cx="2635249" cy="1554122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>97895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB58AFCA-7CC1-C865-EEFB-0CA24741CAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460750" y="8868834"/>
+          <a:ext cx="1979083" cy="1484312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3295,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="45" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50:I58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="45" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3315,10 +3409,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3330,960 +3424,1002 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>6</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>6</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="C50" s="8">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4292,46 +4428,6 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4362,10 +4458,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4377,999 +4473,989 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>50</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>50</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5378,21 +5464,31 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5404,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5436,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5444,7 +5540,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5476,7 +5572,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5500,7 +5596,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.984375</v>
+        <v>0.953125</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5508,7 +5604,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5516,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5524,7 +5620,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5532,7 +5628,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5540,7 +5636,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5644,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5556,7 +5652,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5580,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.953125</v>
+        <v>0.921875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5588,7 +5684,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5596,7 +5692,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5604,7 +5700,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5612,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5620,7 +5716,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.984375</v>
+        <v>0.921875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5636,7 +5732,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5740,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.984375</v>
+        <v>0.953125</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5652,7 +5748,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5756,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5668,7 +5764,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5772,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5684,7 +5780,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.96875</v>
+        <v>0.90625</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5700,7 +5796,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5804,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.921875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5716,7 +5812,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5820,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5732,7 +5828,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5836,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5748,7 +5844,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5852,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5764,7 +5860,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5868,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5780,7 +5876,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5884,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5796,7 +5892,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5900,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5812,7 +5908,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5916,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5828,7 +5924,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5932,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5844,7 +5940,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5948,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5860,7 +5956,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5964,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5876,7 +5972,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5980,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5996,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5908,7 +6004,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6012,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5924,7 +6020,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6028,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5940,7 +6036,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5956,7 +6052,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6060,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5972,7 +6068,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6076,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5988,7 +6084,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6092,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -6004,7 +6100,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6108,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -6020,7 +6116,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6124,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6140,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -6052,7 +6148,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6156,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -6068,7 +6164,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6172,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -6084,7 +6180,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6188,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -6100,7 +6196,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6204,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.96875</v>
+        <v>0.875</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -6116,7 +6212,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6220,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -6132,7 +6228,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6236,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -6148,7 +6244,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6252,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -6164,7 +6260,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6268,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -6180,7 +6276,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6284,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6196,7 +6292,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6300,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6212,7 +6308,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6316,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6228,7 +6324,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6332,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -6244,7 +6340,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6348,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.984375</v>
+        <v>0.875</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6260,7 +6356,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6364,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6276,7 +6372,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6380,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6396,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6308,7 +6404,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6412,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6324,7 +6420,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6428,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6340,7 +6436,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6444,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6356,7 +6452,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6460,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6372,7 +6468,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6476,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6388,7 +6484,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6492,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.984375</v>
+        <v>0.890625</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6404,7 +6500,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6508,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6420,7 +6516,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6524,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6436,7 +6532,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6540,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6452,7 +6548,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6556,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6468,7 +6564,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6476,7 +6572,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6484,7 +6580,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6500,7 +6596,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6508,7 +6604,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6516,7 +6612,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6620,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6532,7 +6628,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6636,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6548,7 +6644,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6652,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6564,7 +6660,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6668,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6580,7 +6676,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6684,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6596,7 +6692,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6700,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6612,7 +6708,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6716,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6628,7 +6724,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6748,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6660,7 +6756,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6764,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6676,7 +6772,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6796,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6708,7 +6804,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6812,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6740,7 +6836,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6844,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6756,7 +6852,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6860,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6772,7 +6868,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6780,7 +6876,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6788,7 +6884,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6796,7 +6892,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6804,7 +6900,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6812,7 +6908,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6820,7 +6916,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6828,7 +6924,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6836,7 +6932,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6844,7 +6940,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6852,7 +6948,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6860,7 +6956,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6868,7 +6964,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6876,7 +6972,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6884,7 +6980,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6892,7 +6988,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6900,7 +6996,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6908,7 +7004,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6916,7 +7012,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6924,7 +7020,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6932,7 +7028,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6940,7 +7036,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6948,7 +7044,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6956,7 +7052,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6964,7 +7060,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6972,7 +7068,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6980,7 +7076,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6988,7 +7084,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6996,7 +7092,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -7004,7 +7100,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -7012,7 +7108,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -7020,7 +7116,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.984375</v>
+        <v>0.90625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -7028,7 +7124,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -7036,7 +7132,7 @@
         <v>41</v>
       </c>
       <c r="M103">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -7044,7 +7140,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -7068,7 +7164,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -7076,7 +7172,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -7100,7 +7196,7 @@
         <v>41</v>
       </c>
       <c r="M107">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -7108,7 +7204,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -7116,7 +7212,7 @@
         <v>41</v>
       </c>
       <c r="M108">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -7124,7 +7220,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -7132,7 +7228,7 @@
         <v>41</v>
       </c>
       <c r="M109">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -7140,7 +7236,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -7164,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="M111">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -7172,7 +7268,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -7180,7 +7276,7 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -7188,7 +7284,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A99E05D-F2F0-44A7-913B-41064D437170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E0FAF-5061-4BDC-8726-2DD13C6CEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9442" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="M04" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Model Name</t>
   </si>
@@ -289,7 +289,12 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f3ebc643100&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f06c60186d0&gt;</t>
+  </si>
+  <si>
+    <t>Token Embeddings
++
+Decoder 123</t>
   </si>
 </sst>
 </file>
@@ -436,10 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,12 +451,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,14 +471,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -587,7 +592,7 @@
                   <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125</c:v>
@@ -599,283 +604,283 @@
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8125</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6875</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>9.375</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.5</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.375</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.9375</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.5</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.5</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.9375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.9375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.9375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.375</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,6 +2200,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513542</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3522AB67-3A5F-A805-B6A4-572CDBEBBBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5640918" y="10488084"/>
+          <a:ext cx="2556124" cy="1513416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>405695</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B7C66F-CB2E-653A-AA44-C5D7B3F6D560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3439584" y="10572750"/>
+          <a:ext cx="1919111" cy="1439333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3389,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="45" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="45" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3409,10 +3508,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3424,1002 +3523,964 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>6</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>6</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>7</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="B59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="9">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="B77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4428,6 +4489,46 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4458,10 +4559,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4473,989 +4574,999 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <f>100-59</f>
         <v>41</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <f>100-48</f>
         <v>52</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="12"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>50</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="12"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="12"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="12"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>50</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="12"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="13"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
@@ -5464,31 +5575,21 @@
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="D14:F22"/>
     <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5500,8 +5601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D24CAE-E098-47FA-9D18-51E847D08958}">
   <dimension ref="L1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5564,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.96875</v>
+        <v>0.984375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5572,7 +5673,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5729,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.953125</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5636,7 +5737,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5745,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5652,7 +5753,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.953125</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5668,7 +5769,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5777,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5684,7 +5785,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5716,7 +5817,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5825,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5732,7 +5833,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5841,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.953125</v>
+        <v>0.9375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5748,7 +5849,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5857,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5764,7 +5865,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5780,7 +5881,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5889,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5796,7 +5897,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5921,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5828,7 +5929,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5937,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5844,7 +5945,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5953,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.890625</v>
+        <v>0.9375</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5860,7 +5961,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5969,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5876,7 +5977,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5892,7 +5993,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +6001,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5908,7 +6009,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6017,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5924,7 +6025,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5932,7 +6033,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5940,7 +6041,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5948,7 +6049,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5956,7 +6057,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5964,7 +6065,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5972,7 +6073,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5980,7 +6081,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5988,7 +6089,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5996,7 +6097,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -6004,7 +6105,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -6012,7 +6113,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -6020,7 +6121,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -6028,7 +6129,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -6036,7 +6137,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -6044,7 +6145,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -6052,7 +6153,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -6060,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -6068,7 +6169,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -6076,7 +6177,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -6084,7 +6185,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -6092,7 +6193,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -6100,7 +6201,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -6108,7 +6209,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -6116,7 +6217,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -6124,7 +6225,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -6132,7 +6233,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -6140,7 +6241,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -6148,7 +6249,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -6156,7 +6257,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -6164,7 +6265,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -6172,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -6180,7 +6281,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -6188,7 +6289,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -6196,7 +6297,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -6204,7 +6305,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -6212,7 +6313,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -6220,7 +6321,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -6228,7 +6329,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -6236,7 +6337,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -6244,7 +6345,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -6252,7 +6353,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -6260,7 +6361,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6369,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -6276,7 +6377,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -6284,7 +6385,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6292,7 +6393,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6300,7 +6401,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6308,7 +6409,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6316,7 +6417,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6324,7 +6425,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6332,7 +6433,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -6340,7 +6441,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -6348,7 +6449,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.875</v>
+        <v>0.953125</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6356,7 +6457,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6364,7 +6465,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6372,7 +6473,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6380,7 +6481,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6388,7 +6489,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6396,7 +6497,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6404,7 +6505,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6412,7 +6513,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.890625</v>
+        <v>0.96875</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6420,7 +6521,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6428,7 +6529,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.890625</v>
+        <v>0.96875</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6436,7 +6537,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6444,7 +6545,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6452,7 +6553,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6460,7 +6561,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6468,7 +6569,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6476,7 +6577,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6484,7 +6585,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6492,7 +6593,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.890625</v>
+        <v>0.953125</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6500,7 +6601,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6508,7 +6609,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6516,7 +6617,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6625,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6532,7 +6633,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6540,7 +6641,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6548,7 +6649,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6657,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6564,7 +6665,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6673,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6580,7 +6681,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6588,7 +6689,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6596,7 +6697,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6604,7 +6705,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6612,7 +6713,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6721,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6628,7 +6729,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6737,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6644,7 +6745,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6753,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6660,7 +6761,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6769,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6676,7 +6777,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6785,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6692,7 +6793,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6801,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6708,7 +6809,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6716,7 +6817,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6724,7 +6825,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6732,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6740,7 +6841,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6849,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6756,7 +6857,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6865,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6772,7 +6873,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6780,7 +6881,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6788,7 +6889,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6796,7 +6897,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6804,7 +6905,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6812,7 +6913,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6820,7 +6921,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6828,7 +6929,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6836,7 +6937,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6844,7 +6945,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6852,7 +6953,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6860,7 +6961,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6868,7 +6969,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6876,7 +6977,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6884,7 +6985,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6892,7 +6993,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6900,7 +7001,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6908,7 +7009,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6916,7 +7017,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6924,7 +7025,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6932,7 +7033,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6940,7 +7041,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6948,7 +7049,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6956,7 +7057,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6964,7 +7065,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6972,7 +7073,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6980,7 +7081,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6988,7 +7089,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6996,7 +7097,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -7004,7 +7105,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -7012,7 +7113,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -7020,7 +7121,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -7028,7 +7129,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -7036,7 +7137,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -7044,7 +7145,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -7052,7 +7153,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -7060,7 +7161,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -7068,7 +7169,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -7076,7 +7177,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -7084,7 +7185,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -7092,7 +7193,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -7100,7 +7201,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -7108,7 +7209,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -7116,7 +7217,7 @@
         <v>41</v>
       </c>
       <c r="M102">
-        <v>0.90625</v>
+        <v>0.953125</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -7124,7 +7225,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -7132,7 +7233,7 @@
         <v>41</v>
       </c>
       <c r="M103">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -7140,7 +7241,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -7148,7 +7249,7 @@
         <v>41</v>
       </c>
       <c r="M104">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -7156,7 +7257,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -7164,7 +7265,7 @@
         <v>41</v>
       </c>
       <c r="M105">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -7172,7 +7273,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -7212,7 +7313,7 @@
         <v>41</v>
       </c>
       <c r="M108">
-        <v>0.921875</v>
+        <v>0.90625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -7220,7 +7321,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -7276,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="M112">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -7284,7 +7385,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -7292,7 +7393,7 @@
         <v>41</v>
       </c>
       <c r="M113">
-        <v>0.953125</v>
+        <v>0.984375</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -7300,7 +7401,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>4.6875</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthric Speakers.xlsx
+++ b/Dysarthric Speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E0FAF-5061-4BDC-8726-2DD13C6CEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3739A603-57E6-40F6-8CB6-997DC8B48474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{65B8B18D-9A80-4269-9189-9F5DDA7ECA5A}"/>
   </bookViews>
@@ -289,12 +289,12 @@
     <t>M04_T3+D1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f06c60186d0&gt;</t>
-  </si>
-  <si>
     <t>Token Embeddings
 +
 Decoder 123</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f98982b9280&gt;</t>
   </si>
 </sst>
 </file>
@@ -441,6 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,15 +455,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,15 +472,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -586,61 +586,61 @@
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.5625</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6875</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>6.25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6.25</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.8125</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.375</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7.8125</c:v>
@@ -649,238 +649,238 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.125</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.125</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.6875</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,6 +2294,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>560917</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>112244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6274132-7DB2-1885-6777-2E262573F942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5746750" y="12128501"/>
+          <a:ext cx="2497667" cy="1477494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564443</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA143F41-1478-73C2-D84F-FD0D207973C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3471334" y="12117919"/>
+          <a:ext cx="2046109" cy="1534582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3488,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C52428-6FF2-4AC0-9F9B-B62B85A25342}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="45" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:I76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="45" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3508,10 +3602,10 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -3523,964 +3617,1006 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-93</f>
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>6</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>6</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>7</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>6</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
+      <c r="C68" s="8">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="10"/>
+      <c r="B77" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="D68:F76"/>
+    <mergeCell ref="G68:I76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:F85"/>
+    <mergeCell ref="G77:I85"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:F58"/>
+    <mergeCell ref="G50:I58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:F67"/>
+    <mergeCell ref="G59:I67"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:F40"/>
+    <mergeCell ref="G32:I40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:F49"/>
+    <mergeCell ref="G41:I49"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:F22"/>
+    <mergeCell ref="G14:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:F31"/>
+    <mergeCell ref="G23:I31"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -4489,46 +4625,6 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="D5:F13"/>
     <mergeCell ref="G5:I13"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:F31"/>
-    <mergeCell ref="G23:I31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:F22"/>
-    <mergeCell ref="G14:I22"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:F49"/>
-    <mergeCell ref="G41:I49"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:F40"/>
-    <mergeCell ref="G32:I40"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:F67"/>
-    <mergeCell ref="G59:I67"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:F58"/>
-    <mergeCell ref="G50:I58"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:F85"/>
-    <mergeCell ref="G77:I85"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="D68:F76"/>
-    <mergeCell ref="G68:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4559,10 +4655,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -4574,999 +4670,989 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>100-55</f>
         <v>45</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>100-53</f>
         <v>47</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f>100-57</f>
         <v>43</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
